--- a/datenverarbeitung/FabrikVerbindung.xlsx
+++ b/datenverarbeitung/FabrikVerbindung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Otavio\Desktop\TUDa\Freedom Plan\ADP Digitaler Schatten\Code\datenverarbeitung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B321EA1C-4FC8-4BBB-B43A-427B01EC3C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAE15FB-FED0-4BCF-8D9E-BA1F0EA3F538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="261">
   <si>
     <t>id</t>
   </si>
@@ -1215,7 +1215,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O9" sqref="O9"/>
+      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1586,7 +1586,7 @@
         <v>5</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>94</v>
@@ -1622,7 +1622,7 @@
         <v>5</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>14</v>
@@ -1658,7 +1658,7 @@
         <v>5</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>99</v>
@@ -1694,7 +1694,7 @@
         <v>5</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>104</v>
@@ -1730,7 +1730,7 @@
         <v>5</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>109</v>
@@ -1766,7 +1766,7 @@
         <v>5</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>114</v>
@@ -1802,7 +1802,7 @@
         <v>5</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>119</v>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>124</v>
@@ -2233,9 +2233,7 @@
       <c r="E33" s="12">
         <v>3</v>
       </c>
-      <c r="F33" s="12" t="s">
-        <v>88</v>
-      </c>
+      <c r="F33" s="12"/>
       <c r="G33" s="12" t="s">
         <v>89</v>
       </c>
@@ -2269,9 +2267,7 @@
       <c r="E34" s="12">
         <v>3</v>
       </c>
-      <c r="F34" s="12" t="s">
-        <v>65</v>
-      </c>
+      <c r="F34" s="12"/>
       <c r="G34" s="12" t="s">
         <v>66</v>
       </c>
@@ -2305,9 +2301,7 @@
       <c r="E35" s="12">
         <v>3</v>
       </c>
-      <c r="F35" s="12" t="s">
-        <v>57</v>
-      </c>
+      <c r="F35" s="12"/>
       <c r="G35" s="12" t="s">
         <v>58</v>
       </c>
@@ -2341,9 +2335,7 @@
       <c r="E36" s="21">
         <v>3</v>
       </c>
-      <c r="F36" s="12" t="s">
-        <v>41</v>
-      </c>
+      <c r="F36" s="12"/>
       <c r="G36" s="22" t="s">
         <v>42</v>
       </c>
@@ -2377,9 +2369,7 @@
       <c r="E37" s="21">
         <v>3</v>
       </c>
-      <c r="F37" s="12" t="s">
-        <v>33</v>
-      </c>
+      <c r="F37" s="12"/>
       <c r="G37" s="12" t="s">
         <v>34</v>
       </c>
@@ -2413,9 +2403,7 @@
       <c r="E38" s="12">
         <v>3</v>
       </c>
-      <c r="F38" s="12" t="s">
-        <v>81</v>
-      </c>
+      <c r="F38" s="12"/>
       <c r="G38" s="12" t="s">
         <v>82</v>
       </c>
@@ -2449,9 +2437,7 @@
       <c r="E39" s="12">
         <v>3</v>
       </c>
-      <c r="F39" s="12" t="s">
-        <v>73</v>
-      </c>
+      <c r="F39" s="12"/>
       <c r="G39" s="12" t="s">
         <v>74</v>
       </c>
@@ -2485,9 +2471,7 @@
       <c r="E40" s="21">
         <v>3</v>
       </c>
-      <c r="F40" s="12" t="s">
-        <v>49</v>
-      </c>
+      <c r="F40" s="12"/>
       <c r="G40" s="12" t="s">
         <v>50</v>
       </c>
@@ -2521,9 +2505,7 @@
       <c r="E41" s="21">
         <v>3</v>
       </c>
-      <c r="F41" s="12" t="s">
-        <v>21</v>
-      </c>
+      <c r="F41" s="12"/>
       <c r="G41" s="12" t="s">
         <v>22</v>
       </c>
@@ -2557,9 +2539,7 @@
       <c r="E42" s="21">
         <v>3</v>
       </c>
-      <c r="F42" s="12" t="s">
-        <v>10</v>
-      </c>
+      <c r="F42" s="12"/>
       <c r="G42" s="12" t="s">
         <v>11</v>
       </c>
@@ -2934,8 +2914,8 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C20:C29"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/datenverarbeitung/FabrikVerbindung.xlsx
+++ b/datenverarbeitung/FabrikVerbindung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Otavio\Desktop\TUDa\Freedom Plan\ADP Digitaler Schatten\Code\datenverarbeitung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAE15FB-FED0-4BCF-8D9E-BA1F0EA3F538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8652EF2-40FA-449F-9610-0DA3A3B1C959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="262">
   <si>
     <t>id</t>
   </si>
@@ -821,6 +821,9 @@
   </si>
   <si>
     <t>FB2 (Empties)</t>
+  </si>
+  <si>
+    <t>process_name</t>
   </si>
 </sst>
 </file>
@@ -1213,9 +1216,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1226,9 +1229,12 @@
     <col min="4" max="4" width="41.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" customWidth="1"/>
+    <col min="7" max="7" width="36.08984375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="27.08984375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6328125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13.1796875" customWidth="1"/>
+    <col min="12" max="12" width="29.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1262,6 +1268,9 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="L1" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="11">
@@ -1289,7 +1298,9 @@
         <v>132</v>
       </c>
       <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
+      <c r="L2" s="11" t="s">
+        <v>257</v>
+      </c>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
     </row>
@@ -1321,7 +1332,9 @@
         <v>137</v>
       </c>
       <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
+      <c r="L3" s="11" t="s">
+        <v>257</v>
+      </c>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
     </row>
@@ -1351,7 +1364,9 @@
         <v>141</v>
       </c>
       <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
+      <c r="L4" s="12" t="s">
+        <v>258</v>
+      </c>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
     </row>
@@ -1381,7 +1396,9 @@
         <v>141</v>
       </c>
       <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
+      <c r="L5" s="12" t="s">
+        <v>258</v>
+      </c>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
     </row>
@@ -1413,7 +1430,9 @@
         <v>141</v>
       </c>
       <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
+      <c r="L6" s="11" t="s">
+        <v>256</v>
+      </c>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
     </row>
@@ -1437,7 +1456,9 @@
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
+      <c r="L7" s="11" t="s">
+        <v>256</v>
+      </c>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
     </row>
@@ -1469,7 +1490,9 @@
         <v>141</v>
       </c>
       <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
+      <c r="L8" s="11" t="s">
+        <v>256</v>
+      </c>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
     </row>
@@ -1501,7 +1524,9 @@
         <v>155</v>
       </c>
       <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
+      <c r="L9" s="11" t="s">
+        <v>256</v>
+      </c>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
     </row>
@@ -1533,7 +1558,9 @@
         <v>160</v>
       </c>
       <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
+      <c r="L10" s="11" t="s">
+        <v>256</v>
+      </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
     </row>
@@ -1565,7 +1592,9 @@
         <v>165</v>
       </c>
       <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
+      <c r="L11" s="11" t="s">
+        <v>256</v>
+      </c>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
     </row>
@@ -1601,7 +1630,9 @@
         <v>97</v>
       </c>
       <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
+      <c r="L12" s="13" t="s">
+        <v>254</v>
+      </c>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
     </row>
@@ -1637,7 +1668,9 @@
         <v>17</v>
       </c>
       <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
+      <c r="L13" s="13" t="s">
+        <v>254</v>
+      </c>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
     </row>
@@ -1673,7 +1706,9 @@
         <v>102</v>
       </c>
       <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
+      <c r="L14" s="13" t="s">
+        <v>254</v>
+      </c>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
     </row>
@@ -1709,7 +1744,9 @@
         <v>107</v>
       </c>
       <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
+      <c r="L15" s="13" t="s">
+        <v>254</v>
+      </c>
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
     </row>
@@ -1745,7 +1782,9 @@
         <v>112</v>
       </c>
       <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+      <c r="L16" s="13" t="s">
+        <v>254</v>
+      </c>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
     </row>
@@ -1781,7 +1820,9 @@
         <v>117</v>
       </c>
       <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
+      <c r="L17" s="13" t="s">
+        <v>254</v>
+      </c>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
     </row>
@@ -1817,7 +1858,9 @@
         <v>122</v>
       </c>
       <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
+      <c r="L18" s="13" t="s">
+        <v>254</v>
+      </c>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
     </row>
@@ -1851,7 +1894,9 @@
         <v>127</v>
       </c>
       <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
+      <c r="L19" s="13" t="s">
+        <v>254</v>
+      </c>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
     </row>
@@ -1881,7 +1926,9 @@
         <v>186</v>
       </c>
       <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+      <c r="L20" s="11" t="s">
+        <v>254</v>
+      </c>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
     </row>
@@ -1911,7 +1958,9 @@
         <v>191</v>
       </c>
       <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
+      <c r="L21" s="11" t="s">
+        <v>254</v>
+      </c>
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
     </row>
@@ -1941,7 +1990,9 @@
         <v>193</v>
       </c>
       <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
+      <c r="L22" s="11" t="s">
+        <v>254</v>
+      </c>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
     </row>
@@ -1971,7 +2022,9 @@
         <v>198</v>
       </c>
       <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
+      <c r="L23" s="11" t="s">
+        <v>254</v>
+      </c>
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
     </row>
@@ -2001,7 +2054,9 @@
         <v>203</v>
       </c>
       <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
+      <c r="L24" s="11" t="s">
+        <v>254</v>
+      </c>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
     </row>
@@ -2031,7 +2086,9 @@
         <v>208</v>
       </c>
       <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
+      <c r="L25" s="11" t="s">
+        <v>254</v>
+      </c>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
     </row>
@@ -2061,7 +2118,9 @@
         <v>213</v>
       </c>
       <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
+      <c r="L26" s="11" t="s">
+        <v>254</v>
+      </c>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
     </row>
@@ -2091,7 +2150,9 @@
         <v>215</v>
       </c>
       <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
+      <c r="L27" s="11" t="s">
+        <v>254</v>
+      </c>
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
     </row>
@@ -2121,7 +2182,9 @@
         <v>220</v>
       </c>
       <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
+      <c r="L28" s="11" t="s">
+        <v>254</v>
+      </c>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
     </row>
@@ -2151,7 +2214,9 @@
         <v>225</v>
       </c>
       <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
+      <c r="L29" s="11" t="s">
+        <v>254</v>
+      </c>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
     </row>
@@ -2173,7 +2238,9 @@
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
+      <c r="L30" s="11" t="s">
+        <v>254</v>
+      </c>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
     </row>
@@ -2193,7 +2260,9 @@
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
+      <c r="L31" s="11" t="s">
+        <v>254</v>
+      </c>
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
     </row>
@@ -2213,7 +2282,9 @@
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
+      <c r="L32" s="11" t="s">
+        <v>254</v>
+      </c>
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
     </row>
@@ -2247,7 +2318,9 @@
         <v>92</v>
       </c>
       <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
+      <c r="L33" s="12" t="s">
+        <v>253</v>
+      </c>
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
     </row>
@@ -2281,7 +2354,9 @@
         <v>69</v>
       </c>
       <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
+      <c r="L34" s="12" t="s">
+        <v>253</v>
+      </c>
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
     </row>
@@ -2315,7 +2390,9 @@
         <v>61</v>
       </c>
       <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
+      <c r="L35" s="12" t="s">
+        <v>253</v>
+      </c>
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
     </row>
@@ -2349,7 +2426,9 @@
         <v>45</v>
       </c>
       <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
+      <c r="L36" s="12" t="s">
+        <v>253</v>
+      </c>
       <c r="M36" s="12"/>
       <c r="N36" s="12"/>
     </row>
@@ -2383,7 +2462,9 @@
         <v>37</v>
       </c>
       <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
+      <c r="L37" s="12" t="s">
+        <v>253</v>
+      </c>
       <c r="M37" s="12"/>
       <c r="N37" s="12"/>
     </row>
@@ -2417,7 +2498,9 @@
         <v>84</v>
       </c>
       <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
+      <c r="L38" s="12" t="s">
+        <v>253</v>
+      </c>
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
     </row>
@@ -2451,7 +2534,9 @@
         <v>77</v>
       </c>
       <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
+      <c r="L39" s="12" t="s">
+        <v>253</v>
+      </c>
       <c r="M39" s="12"/>
       <c r="N39" s="12"/>
     </row>
@@ -2485,7 +2570,9 @@
         <v>53</v>
       </c>
       <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
+      <c r="L40" s="12" t="s">
+        <v>253</v>
+      </c>
       <c r="M40" s="12"/>
       <c r="N40" s="12"/>
     </row>
@@ -2519,7 +2606,9 @@
         <v>25</v>
       </c>
       <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
+      <c r="L41" s="12" t="s">
+        <v>253</v>
+      </c>
       <c r="M41" s="12"/>
       <c r="N41" s="12"/>
     </row>
@@ -2553,7 +2642,9 @@
         <v>29</v>
       </c>
       <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
+      <c r="L42" s="12" t="s">
+        <v>253</v>
+      </c>
       <c r="M42" s="12"/>
       <c r="N42" s="12"/>
     </row>
@@ -2583,7 +2674,9 @@
         <v>141</v>
       </c>
       <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
+      <c r="L43" s="12" t="s">
+        <v>253</v>
+      </c>
       <c r="M43" s="12"/>
       <c r="N43" s="12"/>
     </row>
@@ -2613,7 +2706,9 @@
         <v>141</v>
       </c>
       <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
+      <c r="L44" s="12" t="s">
+        <v>253</v>
+      </c>
       <c r="M44" s="12"/>
       <c r="N44" s="12"/>
     </row>
@@ -2641,7 +2736,9 @@
       </c>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
+      <c r="L45" s="12" t="s">
+        <v>253</v>
+      </c>
       <c r="M45" s="12"/>
       <c r="N45" s="12"/>
     </row>
@@ -2673,7 +2770,9 @@
         <v>167</v>
       </c>
       <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
+      <c r="L46" s="11" t="s">
+        <v>255</v>
+      </c>
       <c r="M46" s="11"/>
       <c r="N46" s="11"/>
     </row>
@@ -2705,7 +2804,9 @@
         <v>169</v>
       </c>
       <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
+      <c r="L47" s="11" t="s">
+        <v>255</v>
+      </c>
       <c r="M47" s="11"/>
       <c r="N47" s="11"/>
     </row>
@@ -2737,7 +2838,9 @@
         <v>171</v>
       </c>
       <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
+      <c r="L48" s="11" t="s">
+        <v>255</v>
+      </c>
       <c r="M48" s="11"/>
       <c r="N48" s="11"/>
     </row>
@@ -2769,7 +2872,9 @@
         <v>173</v>
       </c>
       <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
+      <c r="L49" s="11" t="s">
+        <v>255</v>
+      </c>
       <c r="M49" s="11"/>
       <c r="N49" s="11"/>
     </row>
@@ -2801,7 +2906,9 @@
         <v>175</v>
       </c>
       <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
+      <c r="L50" s="11" t="s">
+        <v>255</v>
+      </c>
       <c r="M50" s="11"/>
       <c r="N50" s="11"/>
     </row>
@@ -2833,7 +2940,9 @@
         <v>177</v>
       </c>
       <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
+      <c r="L51" s="11" t="s">
+        <v>255</v>
+      </c>
       <c r="M51" s="11"/>
       <c r="N51" s="11"/>
     </row>
@@ -2865,7 +2974,9 @@
         <v>179</v>
       </c>
       <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
+      <c r="L52" s="11" t="s">
+        <v>255</v>
+      </c>
       <c r="M52" s="11"/>
       <c r="N52" s="11"/>
     </row>
@@ -2897,7 +3008,9 @@
         <v>181</v>
       </c>
       <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
+      <c r="L53" s="11" t="s">
+        <v>255</v>
+      </c>
       <c r="M53" s="11"/>
       <c r="N53" s="11"/>
     </row>
@@ -2914,8 +3027,8 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E30:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/datenverarbeitung/FabrikVerbindung.xlsx
+++ b/datenverarbeitung/FabrikVerbindung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Otavio\Desktop\TUDa\Freedom Plan\ADP Digitaler Schatten\Code\datenverarbeitung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8652EF2-40FA-449F-9610-0DA3A3B1C959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC46E3A4-096A-4C2A-A667-AF2D86F6B787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1216,9 +1216,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O48" sqref="O48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1226,7 +1226,7 @@
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.54296875" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36.08984375" hidden="1" customWidth="1"/>

--- a/datenverarbeitung/FabrikVerbindung.xlsx
+++ b/datenverarbeitung/FabrikVerbindung.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="317">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -57,6 +57,12 @@
     <t xml:space="preserve">process_name</t>
   </si>
   <si>
+    <t xml:space="preserve">variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">box_capacity</t>
+  </si>
+  <si>
     <t xml:space="preserve">inventar</t>
   </si>
   <si>
@@ -81,6 +87,9 @@
     <t xml:space="preserve">(Fräsen or Sägen) then Waschen</t>
   </si>
   <si>
+    <t xml:space="preserve">D40</t>
+  </si>
+  <si>
     <t xml:space="preserve">SM_Fraesen</t>
   </si>
   <si>
@@ -105,6 +114,9 @@
     <t xml:space="preserve">2023d6a8-0fab-468e-b40e-8a26cae5f7f5</t>
   </si>
   <si>
+    <t xml:space="preserve">D25</t>
+  </si>
+  <si>
     <t xml:space="preserve">FS1</t>
   </si>
   <si>
@@ -174,6 +186,9 @@
     <t xml:space="preserve">FK (Empties)</t>
   </si>
   <si>
+    <t xml:space="preserve">Kolbenstange</t>
+  </si>
+  <si>
     <t xml:space="preserve">FK</t>
   </si>
   <si>
@@ -264,6 +279,9 @@
     <t xml:space="preserve">Transport/Montage</t>
   </si>
   <si>
+    <t xml:space="preserve">Deckel D40</t>
+  </si>
+  <si>
     <t xml:space="preserve">SM_Lieferant</t>
   </si>
   <si>
@@ -294,6 +312,9 @@
     <t xml:space="preserve">538a71e2-99b9-4e5d-8fab-bdcde4868f0d</t>
   </si>
   <si>
+    <t xml:space="preserve">Deckel D25</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1</t>
   </si>
   <si>
@@ -321,6 +342,9 @@
     <t xml:space="preserve">5624ba3f-327e-4bd7-b021-81a9ac08f6cc</t>
   </si>
   <si>
+    <t xml:space="preserve">Kolben D40</t>
+  </si>
+  <si>
     <t xml:space="preserve">LK2</t>
   </si>
   <si>
@@ -348,6 +372,9 @@
     <t xml:space="preserve">e1dc3046-93f5-48ed-b2cf-bd605e3eaff7</t>
   </si>
   <si>
+    <t xml:space="preserve">Kolben D25</t>
+  </si>
+  <si>
     <t xml:space="preserve">LK1</t>
   </si>
   <si>
@@ -375,6 +402,9 @@
     <t xml:space="preserve">a3ff8527-2582-474f-90b3-0abb7ae0c021</t>
   </si>
   <si>
+    <t xml:space="preserve">Gehause D40/100</t>
+  </si>
+  <si>
     <t xml:space="preserve">LG3</t>
   </si>
   <si>
@@ -402,6 +432,9 @@
     <t xml:space="preserve">f1749739-f4ac-4206-af28-5bc7b3322484</t>
   </si>
   <si>
+    <t xml:space="preserve">Gehause D25/100</t>
+  </si>
+  <si>
     <t xml:space="preserve">LG1</t>
   </si>
   <si>
@@ -429,6 +462,9 @@
     <t xml:space="preserve">082c2b14-e019-4fb0-9c88-200fa424aaa3</t>
   </si>
   <si>
+    <t xml:space="preserve">Gehause D40/150</t>
+  </si>
+  <si>
     <t xml:space="preserve">LG4</t>
   </si>
   <si>
@@ -456,6 +492,9 @@
     <t xml:space="preserve">9adf1dbf-58ad-4ba1-bd29-22d25e22c53c</t>
   </si>
   <si>
+    <t xml:space="preserve">Gehause D25/150</t>
+  </si>
+  <si>
     <t xml:space="preserve">LG2</t>
   </si>
   <si>
@@ -477,6 +516,9 @@
     <t xml:space="preserve">e9baf96e-803b-42ab-8601-eff2390773e3</t>
   </si>
   <si>
+    <t xml:space="preserve">Kolbenstange D40/100/Aussen</t>
+  </si>
+  <si>
     <t xml:space="preserve">SM_Fertigung</t>
   </si>
   <si>
@@ -498,6 +540,9 @@
     <t xml:space="preserve">659acad2-a059-45c1-8f5f-e04906ccff86</t>
   </si>
   <si>
+    <t xml:space="preserve">Kolbenstange D25/100/Aussen</t>
+  </si>
+  <si>
     <t xml:space="preserve">FK1</t>
   </si>
   <si>
@@ -516,6 +561,9 @@
     <t xml:space="preserve">51c97b7a-e490-4430-87e7-4d9a78046b44</t>
   </si>
   <si>
+    <t xml:space="preserve">Boden D25</t>
+  </si>
+  <si>
     <t xml:space="preserve">S001.M005.02.01</t>
   </si>
   <si>
@@ -531,6 +579,9 @@
     <t xml:space="preserve">96352d99-4239-492c-b8b4-5a99035a0190</t>
   </si>
   <si>
+    <t xml:space="preserve">Kolbenstange D40/100/Innen</t>
+  </si>
+  <si>
     <t xml:space="preserve">FK6</t>
   </si>
   <si>
@@ -549,6 +600,9 @@
     <t xml:space="preserve">1db0d16e-eb02-4016-b461-85521857bad9</t>
   </si>
   <si>
+    <t xml:space="preserve">Kolbenstange D25/100/Innen</t>
+  </si>
+  <si>
     <t xml:space="preserve">FK2</t>
   </si>
   <si>
@@ -567,6 +621,9 @@
     <t xml:space="preserve">b0adf6fd-a9be-4942-9f9e-3a068ca77d8d</t>
   </si>
   <si>
+    <t xml:space="preserve">Kolbenstange D40/150/Aussen</t>
+  </si>
+  <si>
     <t xml:space="preserve">FK7</t>
   </si>
   <si>
@@ -585,6 +642,9 @@
     <t xml:space="preserve">4a2088e7-e5c7-400f-8430-3c124c113da1</t>
   </si>
   <si>
+    <t xml:space="preserve">Kolbenstange D25/150/Aussen</t>
+  </si>
+  <si>
     <t xml:space="preserve">FK3</t>
   </si>
   <si>
@@ -603,6 +663,9 @@
     <t xml:space="preserve">15c5e6f6-a406-4f02-bac3-0521d51f86fc</t>
   </si>
   <si>
+    <t xml:space="preserve">Boden D40</t>
+  </si>
+  <si>
     <t xml:space="preserve">S001.M005.04.01</t>
   </si>
   <si>
@@ -636,6 +699,9 @@
     <t xml:space="preserve">781bd4d7-6a58-46fc-8431-3418413d001e</t>
   </si>
   <si>
+    <t xml:space="preserve">Kolbenstange D25/150/Innen</t>
+  </si>
+  <si>
     <t xml:space="preserve">FK4</t>
   </si>
   <si>
@@ -703,6 +769,9 @@
   </si>
   <si>
     <t xml:space="preserve">41ffe350-3606-46e6-bc64-0655e6ae959a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boden D40 </t>
   </si>
   <si>
     <t xml:space="preserve">29a9f29c-174f-4ab8-abc6-a30ac1063fee</t>
@@ -951,7 +1020,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -961,7 +1030,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBDD7EE"/>
-        <bgColor rgb="FFC5E0B4"/>
+        <bgColor rgb="FFB4C7DC"/>
       </patternFill>
     </fill>
     <fill>
@@ -974,6 +1043,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF8CBAD"/>
         <bgColor rgb="FFC5E0B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FFBDD7EE"/>
       </patternFill>
     </fill>
     <fill>
@@ -1017,7 +1092,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1066,6 +1141,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1082,11 +1161,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1094,7 +1173,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1127,7 +1206,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC5E0B4"/>
+      <rgbColor rgb="FFB4C7DC"/>
       <rgbColor rgb="FF7A7E85"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -1147,7 +1226,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFC5E0B4"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -1179,12 +1258,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="M46" activeCellId="0" sqref="M46:M53"/>
+      <selection pane="bottomLeft" activeCell="K31" activeCellId="0" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1201,8 +1280,10 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="15.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="29.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="23.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1245,19 +1326,25 @@
       <c r="N1" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="O1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>3</v>
@@ -1266,189 +1353,203 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>5</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="O6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>5</v>
@@ -1460,913 +1561,1047 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="O7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>5</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O8" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O9" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>5</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O10" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>5</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O11" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E12" s="3" t="n">
         <v>5</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="O12" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="N12" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>5</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="O13" s="3"/>
+        <v>96</v>
+      </c>
+      <c r="N13" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E14" s="3" t="n">
         <v>5</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="O14" s="3"/>
+        <v>106</v>
+      </c>
+      <c r="N14" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="n">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E15" s="3" t="n">
         <v>5</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="O15" s="3"/>
+        <v>116</v>
+      </c>
+      <c r="N15" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="n">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E16" s="3" t="n">
         <v>5</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="O16" s="3"/>
+        <v>126</v>
+      </c>
+      <c r="N16" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="n">
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E17" s="3" t="n">
         <v>5</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="O17" s="3"/>
+        <v>136</v>
+      </c>
+      <c r="N17" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="n">
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E18" s="3" t="n">
         <v>5</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="O18" s="3"/>
+        <v>146</v>
+      </c>
+      <c r="N18" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="n">
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="E19" s="3" t="n">
         <v>5</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="O19" s="3"/>
+        <v>156</v>
+      </c>
+      <c r="N19" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>4</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="O20" s="1"/>
+        <v>164</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>4</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="O21" s="1"/>
+        <v>172</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>4</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O22" s="1"/>
+        <v>179</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>4</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="O23" s="1"/>
+        <v>185</v>
+      </c>
+      <c r="N23" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>4</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="O24" s="1"/>
+        <v>192</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>4</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="O25" s="1"/>
+        <v>199</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>4</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="O26" s="1"/>
+        <v>206</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="E27" s="1" t="n">
         <v>4</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O27" s="1"/>
+        <v>213</v>
+      </c>
+      <c r="N27" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>4</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="O28" s="1"/>
+        <v>185</v>
+      </c>
+      <c r="N28" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="E29" s="1" t="n">
         <v>4</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="O29" s="1"/>
+        <v>225</v>
+      </c>
+      <c r="N29" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="n">
@@ -2379,20 +2614,22 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>151</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="M30" s="1"/>
       <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
+      <c r="O30" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -2404,20 +2641,22 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>151</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="M31" s="1"/>
       <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
+      <c r="O31" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2429,834 +2668,950 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>151</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="M32" s="1"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
+      <c r="O32" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>3</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="N33" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>3</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="N34" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>3</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="N35" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="E36" s="10" t="n">
         <v>3</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="11" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N36" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="n">
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="E37" s="10" t="n">
         <v>3</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="N37" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>3</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N38" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="E39" s="2" t="n">
         <v>3</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="N39" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="E40" s="10" t="n">
         <v>5</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="2" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="N40" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="E41" s="10" t="n">
         <v>3</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="N41" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="n">
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="E42" s="10" t="n">
         <v>7</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="N42" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>214</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+      <c r="O43" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>214</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+      <c r="O44" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>214</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+      <c r="O45" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+      <c r="A46" s="12" t="n">
         <v>44</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D46" s="1" t="s">
+      <c r="B46" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="M46" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="N46" s="12" t="n">
+        <v>8</v>
+      </c>
+      <c r="O46" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="P46" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q46" s="12"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="12" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E47" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="M47" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="N47" s="12" t="n">
+        <v>8</v>
+      </c>
+      <c r="O47" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="P47" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q47" s="12"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="12" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="M48" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="N48" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="O48" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="P48" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E46" s="1" t="n">
+      <c r="Q48" s="12"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="12" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E49" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="O46" s="1"/>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E47" s="1" t="n">
+      <c r="F49" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="J49" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="M49" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="N49" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="O49" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="P49" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q49" s="12"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="12" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E50" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="O47" s="1"/>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E48" s="1" t="n">
+      <c r="F50" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="J50" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="M50" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="N50" s="12" t="n">
+        <v>8</v>
+      </c>
+      <c r="O50" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="P50" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q50" s="12"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="12" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E51" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="O48" s="1"/>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E49" s="1" t="n">
+      <c r="F51" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="M51" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="N51" s="12" t="n">
+        <v>8</v>
+      </c>
+      <c r="O51" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="P51" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q51" s="12"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E52" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="O49" s="1"/>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E50" s="1" t="n">
+      <c r="F52" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="M52" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="N52" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="O52" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="P52" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q52" s="12"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="12" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E53" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="O50" s="1"/>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E51" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="O51" s="1"/>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E52" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="O52" s="1"/>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E53" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="O53" s="1"/>
-    </row>
-    <row r="59" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="F53" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="M53" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="N53" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="O53" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="P53" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q53" s="12"/>
+    </row>
+    <row r="59" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3278,7 +3633,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H14" activeCellId="1" sqref="M46:M53 H14"/>
+      <selection pane="bottomLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3291,776 +3646,776 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>291</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>292</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="120" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>293</v>
+        <v>74</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>316</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -4082,7 +4437,7 @@
   <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="M46:M53 D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4098,31 +4453,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="15" t="n">
+        <v>88</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>87</v>
+      <c r="F1" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>93</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4130,31 +4485,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="E2" s="15" t="n">
+        <v>176</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E2" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>160</v>
+      <c r="F2" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4162,31 +4517,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="E3" s="15" t="n">
+        <v>91</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="E3" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>84</v>
+      <c r="F3" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>90</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4194,31 +4549,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="E4" s="15" t="n">
+        <v>79</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="E4" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>73</v>
+      <c r="F4" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>78</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4226,31 +4581,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="E5" s="15" t="n">
+        <v>210</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="E5" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>189</v>
+      <c r="F5" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>209</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4258,31 +4613,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="E6" s="15" t="n">
+        <v>131</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="E6" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>120</v>
+      <c r="F6" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4290,31 +4645,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>220</v>
+        <v>121</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>242</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>111</v>
+      <c r="F7" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>120</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4322,31 +4677,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>216</v>
+        <v>141</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>238</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>129</v>
+      <c r="F8" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>140</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4354,31 +4709,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>235</v>
+        <v>151</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>258</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>138</v>
+      <c r="F9" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>150</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4386,31 +4741,31 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>102</v>
+        <v>111</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>102</v>
+      <c r="F10" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>110</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4418,31 +4773,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>210</v>
+        <v>101</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>232</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F11" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>93</v>
+      <c r="F11" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>100</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4450,31 +4805,31 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>73</v>
+        <v>76</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>78</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>76</v>
+      <c r="F12" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4482,31 +4837,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>93</v>
+        <v>98</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F13" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>96</v>
+      <c r="F13" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>103</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4514,31 +4869,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>102</v>
+        <v>108</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F14" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>105</v>
+      <c r="F14" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>113</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4546,31 +4901,31 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>111</v>
+        <v>118</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>120</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F15" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>114</v>
+      <c r="F15" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>123</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4578,31 +4933,31 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>120</v>
+        <v>128</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>130</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F16" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>123</v>
+      <c r="F16" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>133</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4610,31 +4965,31 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>129</v>
+        <v>138</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>140</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F17" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>132</v>
+      <c r="F17" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>143</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4642,718 +4997,718 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>137</v>
+        <v>148</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>149</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>141</v>
+        <v>150</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>153</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
       <c r="I20" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
       <c r="I21" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
       <c r="I22" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
       <c r="I23" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
       <c r="I24" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
       <c r="I25" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
       <c r="I26" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
       <c r="I27" s="0" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
       <c r="I28" s="0" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
       <c r="I30" s="0" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
       <c r="I31" s="0" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
       <c r="I32" s="0" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
       <c r="I33" s="0" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
       <c r="I34" s="0" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
       <c r="I35" s="0" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
       <c r="I36" s="0" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
       <c r="I37" s="0" t="s">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>282</v>
+        <v>305</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
+        <v>160</v>
+      </c>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
       <c r="I39" s="0" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
+        <v>169</v>
+      </c>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
       <c r="I40" s="0" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
+        <v>175</v>
+      </c>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
       <c r="I41" s="0" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
+        <v>182</v>
+      </c>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
       <c r="I42" s="0" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
+        <v>189</v>
+      </c>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
       <c r="I43" s="0" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
+        <v>196</v>
+      </c>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
       <c r="I44" s="0" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
+        <v>203</v>
+      </c>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
       <c r="I45" s="0" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>188</v>
+        <v>66</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>208</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
+        <v>209</v>
+      </c>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
       <c r="I46" s="0" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
+        <v>216</v>
+      </c>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
       <c r="I47" s="0" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
+        <v>222</v>
+      </c>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
       <c r="I48" s="0" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
+        <v>228</v>
+      </c>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
     </row>
     <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
+        <v>229</v>
+      </c>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
     </row>
     <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
+        <v>230</v>
+      </c>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
     </row>
     <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/datenverarbeitung/FabrikVerbindung.xlsx
+++ b/datenverarbeitung/FabrikVerbindung.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Otavio\Desktop\TUDa\Freedom Plan\ADP Digitaler Schatten\Code\datenverarbeitung\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96DDB3C-6D8A-4868-8F1D-101E95A4A4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Planilha1" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Planilha2" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,987 +29,968 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="317">
   <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lane_address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lane_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">control_cycle_description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">capacity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">target_lane_address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">target_lane_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">target_lane_description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kanban_cycle_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kanban_cycle_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">process_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">variant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">box_capacity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inventar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lane_inventar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M001.01.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3da56222-47c8-4382-b1c9-4347dd589a49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linie FS2 im Supermarkt der Fräse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FS2-SFR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aff183a4-42d8-4d8c-b21f-da6a796c6fda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Fräsen or Sägen) then Waschen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM_Fraesen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FS2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M001.01.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">649ad7f8-0fc8-4bb3-8564-0b9fc489143e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linie FS1 im Supermarkt der Fräse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FS1-SFR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023d6a8-0fab-468e-b40e-8a26cae5f7f5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FS1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M002.01.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2a706317-2ffb-4f8e-8b2d-6bf297f9db78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Airwolf Seite links</t>
-  </si>
-  <si>
-    <t xml:space="preserve">undefined</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Messen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM_Messen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Links</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M002.01.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0eb1db60-77c9-4a2f-afbe-bdab623a55fd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aitwolf Seite rechts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rechts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M003.01.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">286b6d21-cd7f-4c5a-9600-17bbeeb877b1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FB1 (Empties)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transport/Fertigung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lager_Fertigung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M003.01.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8a239df2-7c10-456c-8d54-ac36e4ab2894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FB2 (Empties)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M003.01.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7c03edaf-6256-4ed2-9376-64bb352c9953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK (Empties)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kolbenstange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M003.02.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aed94e2e-d66e-468a-bcf0-d122fdbc0b10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linie FB1 im Supermarkt nach dem Testen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M005.01.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FB1-ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2ff41199-9f50-4077-be38-a466269e404b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FB1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M003.02.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d8034fa3-664d-4e32-ab2d-6e0abf6e23d4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linie FB2 im Supermarkt nach dem Testen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M005.03.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FB2-ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">afecc4cc-6d91-4647-a7e3-7962a5be64bb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M003.02.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6e87ad99-cef3-405f-ad75-a2720abda95a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linie FK im Supermarkt nach dem Testen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M005.01.01,S001.M005.01.02,S001.M005.02.01,S001.M005.02.02,S001.M005.03.01,S001.M005.03.02,S001.M005.04.01,S001.M005.04.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK-ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86f1a1ba-4c99-4ce7-924e-3bb6607b0ad2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M004.01.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7a5dc1a2-d105-40ec-bcda-5f7c7cb2261b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linie LD2 im Supermarkt Lieferant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M006.01.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ffc280cd-13a8-49e9-a06a-1281e826645d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linie LD2 im Supermarkt des Central Warehouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LD2-SL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50cb3ac3-e7b4-4db1-9690-9c89ff62ef97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transport/Montage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deckel D40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM_Lieferant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LD2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M004.01.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8d20ae37-d762-4d4a-935a-2d07fec2af7e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linie LD1 im Supermarkt Lieferant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M006.02.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c63c5b2c-b368-4f15-92ff-812733582ba8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linie LD1 im Supermarkt des Central Warehouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LD1-SL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">538a71e2-99b9-4e5d-8fab-bdcde4868f0d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deckel D25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LD1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M004.02.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2f391f1c-0488-4b21-a215-fe77978d3886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linie LK2 im Supermarkt Lieferant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M006.01.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">417aec52-81db-459b-9259-21699851a9d1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linie LK2 im Supermarkt des Central Warehouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LK2-SL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5624ba3f-327e-4bd7-b021-81a9ac08f6cc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kolben D40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LK2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M004.02.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5a899a44-ea75-4358-a20b-0b338212c1fa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linie LK1 im Supermarkt Lieferant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M006.02.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e16d6f63-ffd6-4a1c-83b6-e1ce18dc17a8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linie LK1 im Supermarkt des Central Warehouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LK1-SL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e1dc3046-93f5-48ed-b2cf-bd605e3eaff7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kolben D25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LK1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M004.03.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12b892e8-63b8-4927-8607-a7169e78a9f5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linie LG3 im Supermarkt Lieferant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M006.01.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04e45f88-44aa-41b1-b5d9-8183bf3fa935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linie LG3 im Supermarkt des Central Warehouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LG3-SL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a3ff8527-2582-474f-90b3-0abb7ae0c021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gehause D40/100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LG3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M004.03.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cb043b49-96b7-4f6e-8374-3bb8bbb15a32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linie LG1 im Supermarkt Lieferant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M006.02.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72638c2d-39fe-426f-aa6c-ba155236f1d0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linie LG1 im Supermarkt des Central Warehouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LG1-SL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f1749739-f4ac-4206-af28-5bc7b3322484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gehause D25/100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LG1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M004.04.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3fb5394e-4828-44bd-9732-eeb572cc1c10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linie LG4 im Supermarkt Lieferant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M006.01.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bd4e17b4-44a3-40f5-945a-ccf568820eae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linie LG4 im Supermarkt des Central Warehouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LG4-SL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">082c2b14-e019-4fb0-9c88-200fa424aaa3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gehause D40/150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LG4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M004.04.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1a6acfef-0beb-4115-80c2-9c9cf02c6208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linie LG2 im Supermarkt Lieferant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M006.02.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">266b32ef-d2e6-4b6a-979d-ab161cd5b83a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linie LG2 im Supermarkt des Central Warehouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LG2-SL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9adf1dbf-58ad-4ba1-bd29-22d25e22c53c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gehause D25/150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LG2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M005.01.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0294160a-5a5e-4f1c-8680-ff53b8e1eb00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linie FK5 im Supermarkt Fertigung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Junbiki)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK5-SF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e9baf96e-803b-42ab-8601-eff2390773e3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kolbenstange D40/100/Aussen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM_Fertigung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M005.01.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07be9239-2b21-4fac-bddb-fa2ee0498802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linie FK1 im Supermarkt Fertigung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK1-SF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">659acad2-a059-45c1-8f5f-e04906ccff86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kolbenstange D25/100/Aussen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aadf95aa-c11e-41a5-adf3-377b540000ab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kontrollzyklus FB1 im Supermarkt Fertigung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M006.02.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FB1-SF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51c97b7a-e490-4430-87e7-4d9a78046b44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boden D25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M005.02.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a200f2fc-3f18-404c-86ae-745e60a3e11f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linie FK6 im Supermarkt Fertigung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK6-SF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96352d99-4239-492c-b8b4-5a99035a0190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kolbenstange D40/100/Innen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M005.02.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">724144a8-e3b8-4f7e-bb70-4279c849584f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linie FK2 im Supermarkt Fertigung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK2-SF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1db0d16e-eb02-4016-b461-85521857bad9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kolbenstange D25/100/Innen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M005.03.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04551494-1e8c-4a3f-b78a-952c2e38b4e5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linie FK7 im Supermarkt Fertigung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK7-SF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b0adf6fd-a9be-4942-9f9e-3a068ca77d8d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kolbenstange D40/150/Aussen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M005.03.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c83d2166-8c54-4a2d-a530-23b20fc4fda2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linie FK3 im Supermarkt Fertigung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK3-SF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4a2088e7-e5c7-400f-8430-3c124c113da1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kolbenstange D25/150/Aussen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">396e2360-6fec-4e18-9072-8b4e2c6c90fe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linie FB2 im Supermarkt Fertigung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M006.01.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FB2-SF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15c5e6f6-a406-4f02-bac3-0521d51f86fc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boden D40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M005.04.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1e58f6cf-9d6b-4183-bb8f-68acef1a4e79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linie FK8 im Supermarkt Fertigung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK8-SF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abad9367-9b54-4fa5-a972-dfbd22eb24ad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M005.04.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9e97d708-abf2-4a8e-8bc4-8f8ea0053e9e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linie FK4 im Supermarkt Fertigung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK4-SF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">781bd4d7-6a58-46fc-8431-3418413d001e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kolbenstange D25/150/Innen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M005.05.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">023bf504-98a9-4b23-892e-07d6e1e56e6d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M005.05.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M005.05.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ba064e01-172e-4bda-8e5d-753a95c262da</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linie LK2 im Supermarkt Montage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LK2-SM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01ec2ee7-38db-4a9f-8e1c-5db90301b09e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM_Montage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">600c3d5b-0b24-466b-8d89-63701e275666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linie LG4 im Supermarkt Montage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LG4-SM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89e106ac-ce69-4d66-9e41-f81e2a014320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c442a7c8-258e-46ff-a66f-6d9e7967a51e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linie LG3 im Supermarkt Montage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LG3-SM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1c83b022-c500-4b81-bef5-9b33b36127bb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">724887e0-aa55-4388-b835-f2af7b6b1099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linie FB2 im Supermarkt Montage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FB2-SM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41ffe350-3606-46e6-bc64-0655e6ae959a</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>lane_address</t>
+  </si>
+  <si>
+    <t>lane_id</t>
+  </si>
+  <si>
+    <t>control_cycle_description</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>target_lane_address</t>
+  </si>
+  <si>
+    <t>target_lane_id</t>
+  </si>
+  <si>
+    <t>target_lane_description</t>
+  </si>
+  <si>
+    <t>kanban_cycle_name</t>
+  </si>
+  <si>
+    <t>kanban_cycle_id</t>
+  </si>
+  <si>
+    <t>process_name</t>
+  </si>
+  <si>
+    <t>variant</t>
+  </si>
+  <si>
+    <t>box_capacity</t>
+  </si>
+  <si>
+    <t>inventar</t>
+  </si>
+  <si>
+    <t>lane_inventar</t>
+  </si>
+  <si>
+    <t>S001.M001.01.01</t>
+  </si>
+  <si>
+    <t>3da56222-47c8-4382-b1c9-4347dd589a49</t>
+  </si>
+  <si>
+    <t>Linie FS2 im Supermarkt der Fräse</t>
+  </si>
+  <si>
+    <t>FS2-SFR</t>
+  </si>
+  <si>
+    <t>aff183a4-42d8-4d8c-b21f-da6a796c6fda</t>
+  </si>
+  <si>
+    <t>(Fräsen or Sägen) then Waschen</t>
+  </si>
+  <si>
+    <t>D40</t>
+  </si>
+  <si>
+    <t>SM_Fraesen</t>
+  </si>
+  <si>
+    <t>FS2</t>
+  </si>
+  <si>
+    <t>S001.M001.01.02</t>
+  </si>
+  <si>
+    <t>649ad7f8-0fc8-4bb3-8564-0b9fc489143e</t>
+  </si>
+  <si>
+    <t>Linie FS1 im Supermarkt der Fräse</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>FS1-SFR</t>
+  </si>
+  <si>
+    <t>2023d6a8-0fab-468e-b40e-8a26cae5f7f5</t>
+  </si>
+  <si>
+    <t>D25</t>
+  </si>
+  <si>
+    <t>FS1</t>
+  </si>
+  <si>
+    <t>S001.M002.01.01</t>
+  </si>
+  <si>
+    <t>2a706317-2ffb-4f8e-8b2d-6bf297f9db78</t>
+  </si>
+  <si>
+    <t>Airwolf Seite links</t>
+  </si>
+  <si>
+    <t>undefined</t>
+  </si>
+  <si>
+    <t>Messen</t>
+  </si>
+  <si>
+    <t>SM_Messen</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>S001.M002.01.02</t>
+  </si>
+  <si>
+    <t>0eb1db60-77c9-4a2f-afbe-bdab623a55fd</t>
+  </si>
+  <si>
+    <t>Aitwolf Seite rechts</t>
+  </si>
+  <si>
+    <t>Rechts</t>
+  </si>
+  <si>
+    <t>S001.M003.01.01</t>
+  </si>
+  <si>
+    <t>286b6d21-cd7f-4c5a-9600-17bbeeb877b1</t>
+  </si>
+  <si>
+    <t>FB1 (Empties)</t>
+  </si>
+  <si>
+    <t>Transport/Fertigung</t>
+  </si>
+  <si>
+    <t>Lager_Fertigung</t>
+  </si>
+  <si>
+    <t>S001.M003.01.02</t>
+  </si>
+  <si>
+    <t>8a239df2-7c10-456c-8d54-ac36e4ab2894</t>
+  </si>
+  <si>
+    <t>FB2 (Empties)</t>
+  </si>
+  <si>
+    <t>S001.M003.01.03</t>
+  </si>
+  <si>
+    <t>7c03edaf-6256-4ed2-9376-64bb352c9953</t>
+  </si>
+  <si>
+    <t>FK (Empties)</t>
+  </si>
+  <si>
+    <t>Kolbenstange</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>S001.M003.02.01</t>
+  </si>
+  <si>
+    <t>aed94e2e-d66e-468a-bcf0-d122fdbc0b10</t>
+  </si>
+  <si>
+    <t>Linie FB1 im Supermarkt nach dem Testen</t>
+  </si>
+  <si>
+    <t>S001.M005.01.03</t>
+  </si>
+  <si>
+    <t>FB1-ST</t>
+  </si>
+  <si>
+    <t>2ff41199-9f50-4077-be38-a466269e404b</t>
+  </si>
+  <si>
+    <t>FB1</t>
+  </si>
+  <si>
+    <t>S001.M003.02.02</t>
+  </si>
+  <si>
+    <t>d8034fa3-664d-4e32-ab2d-6e0abf6e23d4</t>
+  </si>
+  <si>
+    <t>Linie FB2 im Supermarkt nach dem Testen</t>
+  </si>
+  <si>
+    <t>S001.M005.03.03</t>
+  </si>
+  <si>
+    <t>FB2-ST</t>
+  </si>
+  <si>
+    <t>afecc4cc-6d91-4647-a7e3-7962a5be64bb</t>
+  </si>
+  <si>
+    <t>FB2</t>
+  </si>
+  <si>
+    <t>S001.M003.02.03</t>
+  </si>
+  <si>
+    <t>6e87ad99-cef3-405f-ad75-a2720abda95a</t>
+  </si>
+  <si>
+    <t>Linie FK im Supermarkt nach dem Testen</t>
+  </si>
+  <si>
+    <t>S001.M005.01.01,S001.M005.01.02,S001.M005.02.01,S001.M005.02.02,S001.M005.03.01,S001.M005.03.02,S001.M005.04.01,S001.M005.04.02</t>
+  </si>
+  <si>
+    <t>FK-ST</t>
+  </si>
+  <si>
+    <t>86f1a1ba-4c99-4ce7-924e-3bb6607b0ad2</t>
+  </si>
+  <si>
+    <t>S001.M004.01.01</t>
+  </si>
+  <si>
+    <t>7a5dc1a2-d105-40ec-bcda-5f7c7cb2261b</t>
+  </si>
+  <si>
+    <t>Linie LD2 im Supermarkt Lieferant</t>
+  </si>
+  <si>
+    <t>S001.M006.01.05</t>
+  </si>
+  <si>
+    <t>ffc280cd-13a8-49e9-a06a-1281e826645d</t>
+  </si>
+  <si>
+    <t>Linie LD2 im Supermarkt des Central Warehouse</t>
+  </si>
+  <si>
+    <t>LD2-SL</t>
+  </si>
+  <si>
+    <t>50cb3ac3-e7b4-4db1-9690-9c89ff62ef97</t>
+  </si>
+  <si>
+    <t>Transport/Montage</t>
+  </si>
+  <si>
+    <t>Deckel D40</t>
+  </si>
+  <si>
+    <t>SM_Lieferant</t>
+  </si>
+  <si>
+    <t>LD2</t>
+  </si>
+  <si>
+    <t>S001.M004.01.02</t>
+  </si>
+  <si>
+    <t>8d20ae37-d762-4d4a-935a-2d07fec2af7e</t>
+  </si>
+  <si>
+    <t>Linie LD1 im Supermarkt Lieferant</t>
+  </si>
+  <si>
+    <t>S001.M006.02.05</t>
+  </si>
+  <si>
+    <t>c63c5b2c-b368-4f15-92ff-812733582ba8</t>
+  </si>
+  <si>
+    <t>Linie LD1 im Supermarkt des Central Warehouse</t>
+  </si>
+  <si>
+    <t>LD1-SL</t>
+  </si>
+  <si>
+    <t>538a71e2-99b9-4e5d-8fab-bdcde4868f0d</t>
+  </si>
+  <si>
+    <t>Deckel D25</t>
+  </si>
+  <si>
+    <t>LD1</t>
+  </si>
+  <si>
+    <t>S001.M004.02.01</t>
+  </si>
+  <si>
+    <t>2f391f1c-0488-4b21-a215-fe77978d3886</t>
+  </si>
+  <si>
+    <t>Linie LK2 im Supermarkt Lieferant</t>
+  </si>
+  <si>
+    <t>S001.M006.01.01</t>
+  </si>
+  <si>
+    <t>417aec52-81db-459b-9259-21699851a9d1</t>
+  </si>
+  <si>
+    <t>Linie LK2 im Supermarkt des Central Warehouse</t>
+  </si>
+  <si>
+    <t>LK2-SL</t>
+  </si>
+  <si>
+    <t>5624ba3f-327e-4bd7-b021-81a9ac08f6cc</t>
+  </si>
+  <si>
+    <t>Kolben D40</t>
+  </si>
+  <si>
+    <t>LK2</t>
+  </si>
+  <si>
+    <t>S001.M004.02.02</t>
+  </si>
+  <si>
+    <t>5a899a44-ea75-4358-a20b-0b338212c1fa</t>
+  </si>
+  <si>
+    <t>Linie LK1 im Supermarkt Lieferant</t>
+  </si>
+  <si>
+    <t>S001.M006.02.01</t>
+  </si>
+  <si>
+    <t>e16d6f63-ffd6-4a1c-83b6-e1ce18dc17a8</t>
+  </si>
+  <si>
+    <t>Linie LK1 im Supermarkt des Central Warehouse</t>
+  </si>
+  <si>
+    <t>LK1-SL</t>
+  </si>
+  <si>
+    <t>e1dc3046-93f5-48ed-b2cf-bd605e3eaff7</t>
+  </si>
+  <si>
+    <t>Kolben D25</t>
+  </si>
+  <si>
+    <t>LK1</t>
+  </si>
+  <si>
+    <t>S001.M004.03.01</t>
+  </si>
+  <si>
+    <t>12b892e8-63b8-4927-8607-a7169e78a9f5</t>
+  </si>
+  <si>
+    <t>Linie LG3 im Supermarkt Lieferant</t>
+  </si>
+  <si>
+    <t>S001.M006.01.03</t>
+  </si>
+  <si>
+    <t>04e45f88-44aa-41b1-b5d9-8183bf3fa935</t>
+  </si>
+  <si>
+    <t>Linie LG3 im Supermarkt des Central Warehouse</t>
+  </si>
+  <si>
+    <t>LG3-SL</t>
+  </si>
+  <si>
+    <t>a3ff8527-2582-474f-90b3-0abb7ae0c021</t>
+  </si>
+  <si>
+    <t>Gehause D40/100</t>
+  </si>
+  <si>
+    <t>LG3</t>
+  </si>
+  <si>
+    <t>S001.M004.03.02</t>
+  </si>
+  <si>
+    <t>cb043b49-96b7-4f6e-8374-3bb8bbb15a32</t>
+  </si>
+  <si>
+    <t>Linie LG1 im Supermarkt Lieferant</t>
+  </si>
+  <si>
+    <t>S001.M006.02.03</t>
+  </si>
+  <si>
+    <t>72638c2d-39fe-426f-aa6c-ba155236f1d0</t>
+  </si>
+  <si>
+    <t>Linie LG1 im Supermarkt des Central Warehouse</t>
+  </si>
+  <si>
+    <t>LG1-SL</t>
+  </si>
+  <si>
+    <t>f1749739-f4ac-4206-af28-5bc7b3322484</t>
+  </si>
+  <si>
+    <t>Gehause D25/100</t>
+  </si>
+  <si>
+    <t>LG1</t>
+  </si>
+  <si>
+    <t>S001.M004.04.01</t>
+  </si>
+  <si>
+    <t>3fb5394e-4828-44bd-9732-eeb572cc1c10</t>
+  </si>
+  <si>
+    <t>Linie LG4 im Supermarkt Lieferant</t>
+  </si>
+  <si>
+    <t>S001.M006.01.02</t>
+  </si>
+  <si>
+    <t>bd4e17b4-44a3-40f5-945a-ccf568820eae</t>
+  </si>
+  <si>
+    <t>Linie LG4 im Supermarkt des Central Warehouse</t>
+  </si>
+  <si>
+    <t>LG4-SL</t>
+  </si>
+  <si>
+    <t>082c2b14-e019-4fb0-9c88-200fa424aaa3</t>
+  </si>
+  <si>
+    <t>Gehause D40/150</t>
+  </si>
+  <si>
+    <t>LG4</t>
+  </si>
+  <si>
+    <t>S001.M004.04.02</t>
+  </si>
+  <si>
+    <t>1a6acfef-0beb-4115-80c2-9c9cf02c6208</t>
+  </si>
+  <si>
+    <t>Linie LG2 im Supermarkt Lieferant</t>
+  </si>
+  <si>
+    <t>S001.M006.02.02</t>
+  </si>
+  <si>
+    <t>266b32ef-d2e6-4b6a-979d-ab161cd5b83a</t>
+  </si>
+  <si>
+    <t>Linie LG2 im Supermarkt des Central Warehouse</t>
+  </si>
+  <si>
+    <t>LG2-SL</t>
+  </si>
+  <si>
+    <t>9adf1dbf-58ad-4ba1-bd29-22d25e22c53c</t>
+  </si>
+  <si>
+    <t>Gehause D25/150</t>
+  </si>
+  <si>
+    <t>LG2</t>
+  </si>
+  <si>
+    <t>S001.M005.01.01</t>
+  </si>
+  <si>
+    <t>0294160a-5a5e-4f1c-8680-ff53b8e1eb00</t>
+  </si>
+  <si>
+    <t>Linie FK5 im Supermarkt Fertigung</t>
+  </si>
+  <si>
+    <t>(Junbiki)</t>
+  </si>
+  <si>
+    <t>FK5-SF</t>
+  </si>
+  <si>
+    <t>e9baf96e-803b-42ab-8601-eff2390773e3</t>
+  </si>
+  <si>
+    <t>Kolbenstange D40/100/Aussen</t>
+  </si>
+  <si>
+    <t>SM_Fertigung</t>
+  </si>
+  <si>
+    <t>FK5</t>
+  </si>
+  <si>
+    <t>S001.M005.01.02</t>
+  </si>
+  <si>
+    <t>07be9239-2b21-4fac-bddb-fa2ee0498802</t>
+  </si>
+  <si>
+    <t>Linie FK1 im Supermarkt Fertigung</t>
+  </si>
+  <si>
+    <t>FK1-SF</t>
+  </si>
+  <si>
+    <t>659acad2-a059-45c1-8f5f-e04906ccff86</t>
+  </si>
+  <si>
+    <t>Kolbenstange D25/100/Aussen</t>
+  </si>
+  <si>
+    <t>FK1</t>
+  </si>
+  <si>
+    <t>aadf95aa-c11e-41a5-adf3-377b540000ab</t>
+  </si>
+  <si>
+    <t>Kontrollzyklus FB1 im Supermarkt Fertigung</t>
+  </si>
+  <si>
+    <t>S001.M006.02.04</t>
+  </si>
+  <si>
+    <t>FB1-SF</t>
+  </si>
+  <si>
+    <t>51c97b7a-e490-4430-87e7-4d9a78046b44</t>
+  </si>
+  <si>
+    <t>Boden D25</t>
+  </si>
+  <si>
+    <t>S001.M005.02.01</t>
+  </si>
+  <si>
+    <t>a200f2fc-3f18-404c-86ae-745e60a3e11f</t>
+  </si>
+  <si>
+    <t>Linie FK6 im Supermarkt Fertigung</t>
+  </si>
+  <si>
+    <t>FK6-SF</t>
+  </si>
+  <si>
+    <t>96352d99-4239-492c-b8b4-5a99035a0190</t>
+  </si>
+  <si>
+    <t>Kolbenstange D40/100/Innen</t>
+  </si>
+  <si>
+    <t>FK6</t>
+  </si>
+  <si>
+    <t>S001.M005.02.02</t>
+  </si>
+  <si>
+    <t>724144a8-e3b8-4f7e-bb70-4279c849584f</t>
+  </si>
+  <si>
+    <t>Linie FK2 im Supermarkt Fertigung</t>
+  </si>
+  <si>
+    <t>FK2-SF</t>
+  </si>
+  <si>
+    <t>1db0d16e-eb02-4016-b461-85521857bad9</t>
+  </si>
+  <si>
+    <t>Kolbenstange D25/100/Innen</t>
+  </si>
+  <si>
+    <t>FK2</t>
+  </si>
+  <si>
+    <t>S001.M005.03.01</t>
+  </si>
+  <si>
+    <t>04551494-1e8c-4a3f-b78a-952c2e38b4e5</t>
+  </si>
+  <si>
+    <t>Linie FK7 im Supermarkt Fertigung</t>
+  </si>
+  <si>
+    <t>FK7-SF</t>
+  </si>
+  <si>
+    <t>b0adf6fd-a9be-4942-9f9e-3a068ca77d8d</t>
+  </si>
+  <si>
+    <t>Kolbenstange D40/150/Aussen</t>
+  </si>
+  <si>
+    <t>FK7</t>
+  </si>
+  <si>
+    <t>S001.M005.03.02</t>
+  </si>
+  <si>
+    <t>c83d2166-8c54-4a2d-a530-23b20fc4fda2</t>
+  </si>
+  <si>
+    <t>Linie FK3 im Supermarkt Fertigung</t>
+  </si>
+  <si>
+    <t>FK3-SF</t>
+  </si>
+  <si>
+    <t>4a2088e7-e5c7-400f-8430-3c124c113da1</t>
+  </si>
+  <si>
+    <t>Kolbenstange D25/150/Aussen</t>
+  </si>
+  <si>
+    <t>FK3</t>
+  </si>
+  <si>
+    <t>396e2360-6fec-4e18-9072-8b4e2c6c90fe</t>
+  </si>
+  <si>
+    <t>Linie FB2 im Supermarkt Fertigung</t>
+  </si>
+  <si>
+    <t>S001.M006.01.04</t>
+  </si>
+  <si>
+    <t>FB2-SF</t>
+  </si>
+  <si>
+    <t>15c5e6f6-a406-4f02-bac3-0521d51f86fc</t>
+  </si>
+  <si>
+    <t>Boden D40</t>
+  </si>
+  <si>
+    <t>S001.M005.04.01</t>
+  </si>
+  <si>
+    <t>1e58f6cf-9d6b-4183-bb8f-68acef1a4e79</t>
+  </si>
+  <si>
+    <t>Linie FK8 im Supermarkt Fertigung</t>
+  </si>
+  <si>
+    <t>FK8-SF</t>
+  </si>
+  <si>
+    <t>abad9367-9b54-4fa5-a972-dfbd22eb24ad</t>
+  </si>
+  <si>
+    <t>FK8</t>
+  </si>
+  <si>
+    <t>S001.M005.04.02</t>
+  </si>
+  <si>
+    <t>9e97d708-abf2-4a8e-8bc4-8f8ea0053e9e</t>
+  </si>
+  <si>
+    <t>Linie FK4 im Supermarkt Fertigung</t>
+  </si>
+  <si>
+    <t>FK4-SF</t>
+  </si>
+  <si>
+    <t>781bd4d7-6a58-46fc-8431-3418413d001e</t>
+  </si>
+  <si>
+    <t>Kolbenstange D25/150/Innen</t>
+  </si>
+  <si>
+    <t>FK4</t>
+  </si>
+  <si>
+    <t>S001.M005.05.01</t>
+  </si>
+  <si>
+    <t>023bf504-98a9-4b23-892e-07d6e1e56e6d</t>
+  </si>
+  <si>
+    <t>S001.M005.05.02</t>
+  </si>
+  <si>
+    <t>S001.M005.05.03</t>
+  </si>
+  <si>
+    <t>ba064e01-172e-4bda-8e5d-753a95c262da</t>
+  </si>
+  <si>
+    <t>Linie LK2 im Supermarkt Montage</t>
+  </si>
+  <si>
+    <t>LK2-SM</t>
+  </si>
+  <si>
+    <t>01ec2ee7-38db-4a9f-8e1c-5db90301b09e</t>
+  </si>
+  <si>
+    <t>Montage</t>
+  </si>
+  <si>
+    <t>SM_Montage</t>
+  </si>
+  <si>
+    <t>600c3d5b-0b24-466b-8d89-63701e275666</t>
+  </si>
+  <si>
+    <t>Linie LG4 im Supermarkt Montage</t>
+  </si>
+  <si>
+    <t>LG4-SM</t>
+  </si>
+  <si>
+    <t>89e106ac-ce69-4d66-9e41-f81e2a014320</t>
+  </si>
+  <si>
+    <t>c442a7c8-258e-46ff-a66f-6d9e7967a51e</t>
+  </si>
+  <si>
+    <t>Linie LG3 im Supermarkt Montage</t>
+  </si>
+  <si>
+    <t>LG3-SM</t>
+  </si>
+  <si>
+    <t>1c83b022-c500-4b81-bef5-9b33b36127bb</t>
+  </si>
+  <si>
+    <t>724887e0-aa55-4388-b835-f2af7b6b1099</t>
+  </si>
+  <si>
+    <t>Linie FB2 im Supermarkt Montage</t>
+  </si>
+  <si>
+    <t>FB2-SM</t>
+  </si>
+  <si>
+    <t>41ffe350-3606-46e6-bc64-0655e6ae959a</t>
   </si>
   <si>
     <t xml:space="preserve">Boden D40 </t>
   </si>
   <si>
-    <t xml:space="preserve">29a9f29c-174f-4ab8-abc6-a30ac1063fee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linie LD2 im Supermarkt Montage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LD2-SM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f7362cb4-d4eb-4f83-a140-456141e96b10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7b6f8946-deaf-4047-a2bd-5be58425c6f4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LK1-SM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eee9e685-28b1-4f25-8cb9-67af433f7cc5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">065f9695-de09-4dad-afaf-0502194ee2e9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linie LG2 im Supermarkt Montage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LG2-SM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">420d411a-509a-490d-bc26-9cfd51330ea3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fdc30cc4-0459-40d1-9a69-11a927124549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linie LG1 im Supermarkt Montage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LG1-SM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">352f5c2e-2a62-43b6-b8a4-5344c9d30c32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e45269a4-f5a3-477c-aa89-f5197103074c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linie FB1 im Supermarkt der Montage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FB1-SM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54c4b38d-174a-409f-9d86-5a98bcb464ee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9771d74f-e38f-4da5-8c0e-2eccdb593089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linie LD1 im Supermarkt Montage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LD1-SM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05925966-7932-4e7f-91ee-034b21e2ef5b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M006.03.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b01bbb45-f148-4a3a-b245-c41be7b22564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M006.03.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">721d55ea-f3cb-4a14-8dd4-4a47264865aa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M006.03.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74f4bb5e-061e-4b64-860b-2b6be305db35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M007.01.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LD1-CW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bcd321e7-e6c3-432d-ae7d-764efd3248a9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transport/Lieferung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zentral_Lager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M007.01.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LK1-CW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5efdfa66-9405-4f9e-a8d8-1fde8eb86c47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M007.01.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LD2-CW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4d87a50e-90f5-4f3c-ba3c-c0fe5cb8ad68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M007.01.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LK2-CW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">307b1ca5-983e-4314-b095-f1077a92fe78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M007.02.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LG1-CW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ab86b027-710e-4931-8185-1107bad3a0ee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M007.02.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LG2-CW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">808134d8-e9ab-4b46-a6f6-f4f44d106825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M007.02.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LG3-CW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f4224801-cb79-4602-80b5-b778fd602d76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S001.M007.02.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LG4-CW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73c353a9-3588-48da-bf3e-a1053278da1f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pick_lane_address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p_lane_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t_lane_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prozess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(PRODUCT DONE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(NO TRACKING)*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* We consider that a piece is done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(NO TRACKING)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">when the production of the next one starts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">That's how we track timestamps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK5-SF,FK1-SF,FK6-SF,FK2-SF,FK7-SF,FK3-SF,FK8-SF,FK4-SF</t>
+    <t>29a9f29c-174f-4ab8-abc6-a30ac1063fee</t>
+  </si>
+  <si>
+    <t>Linie LD2 im Supermarkt Montage</t>
+  </si>
+  <si>
+    <t>LD2-SM</t>
+  </si>
+  <si>
+    <t>f7362cb4-d4eb-4f83-a140-456141e96b10</t>
+  </si>
+  <si>
+    <t>7b6f8946-deaf-4047-a2bd-5be58425c6f4</t>
+  </si>
+  <si>
+    <t>LK1-SM</t>
+  </si>
+  <si>
+    <t>eee9e685-28b1-4f25-8cb9-67af433f7cc5</t>
+  </si>
+  <si>
+    <t>065f9695-de09-4dad-afaf-0502194ee2e9</t>
+  </si>
+  <si>
+    <t>Linie LG2 im Supermarkt Montage</t>
+  </si>
+  <si>
+    <t>LG2-SM</t>
+  </si>
+  <si>
+    <t>420d411a-509a-490d-bc26-9cfd51330ea3</t>
+  </si>
+  <si>
+    <t>fdc30cc4-0459-40d1-9a69-11a927124549</t>
+  </si>
+  <si>
+    <t>Linie LG1 im Supermarkt Montage</t>
+  </si>
+  <si>
+    <t>LG1-SM</t>
+  </si>
+  <si>
+    <t>352f5c2e-2a62-43b6-b8a4-5344c9d30c32</t>
+  </si>
+  <si>
+    <t>e45269a4-f5a3-477c-aa89-f5197103074c</t>
+  </si>
+  <si>
+    <t>Linie FB1 im Supermarkt der Montage</t>
+  </si>
+  <si>
+    <t>FB1-SM</t>
+  </si>
+  <si>
+    <t>54c4b38d-174a-409f-9d86-5a98bcb464ee</t>
+  </si>
+  <si>
+    <t>9771d74f-e38f-4da5-8c0e-2eccdb593089</t>
+  </si>
+  <si>
+    <t>Linie LD1 im Supermarkt Montage</t>
+  </si>
+  <si>
+    <t>LD1-SM</t>
+  </si>
+  <si>
+    <t>05925966-7932-4e7f-91ee-034b21e2ef5b</t>
+  </si>
+  <si>
+    <t>S001.M006.03.01</t>
+  </si>
+  <si>
+    <t>b01bbb45-f148-4a3a-b245-c41be7b22564</t>
+  </si>
+  <si>
+    <t>Empties</t>
+  </si>
+  <si>
+    <t>S001.M006.03.03</t>
+  </si>
+  <si>
+    <t>721d55ea-f3cb-4a14-8dd4-4a47264865aa</t>
+  </si>
+  <si>
+    <t>S001.M006.03.05</t>
+  </si>
+  <si>
+    <t>74f4bb5e-061e-4b64-860b-2b6be305db35</t>
+  </si>
+  <si>
+    <t>S001.M007.01.01</t>
+  </si>
+  <si>
+    <t>LD1-CW</t>
+  </si>
+  <si>
+    <t>bcd321e7-e6c3-432d-ae7d-764efd3248a9</t>
+  </si>
+  <si>
+    <t>Transport/Lieferung</t>
+  </si>
+  <si>
+    <t>Zentral_Lager</t>
+  </si>
+  <si>
+    <t>S001.M007.01.02</t>
+  </si>
+  <si>
+    <t>LK1-CW</t>
+  </si>
+  <si>
+    <t>5efdfa66-9405-4f9e-a8d8-1fde8eb86c47</t>
+  </si>
+  <si>
+    <t>S001.M007.01.03</t>
+  </si>
+  <si>
+    <t>LD2-CW</t>
+  </si>
+  <si>
+    <t>4d87a50e-90f5-4f3c-ba3c-c0fe5cb8ad68</t>
+  </si>
+  <si>
+    <t>S001.M007.01.04</t>
+  </si>
+  <si>
+    <t>LK2-CW</t>
+  </si>
+  <si>
+    <t>307b1ca5-983e-4314-b095-f1077a92fe78</t>
+  </si>
+  <si>
+    <t>S001.M007.02.01</t>
+  </si>
+  <si>
+    <t>LG1-CW</t>
+  </si>
+  <si>
+    <t>ab86b027-710e-4931-8185-1107bad3a0ee</t>
+  </si>
+  <si>
+    <t>S001.M007.02.02</t>
+  </si>
+  <si>
+    <t>LG2-CW</t>
+  </si>
+  <si>
+    <t>808134d8-e9ab-4b46-a6f6-f4f44d106825</t>
+  </si>
+  <si>
+    <t>S001.M007.02.03</t>
+  </si>
+  <si>
+    <t>LG3-CW</t>
+  </si>
+  <si>
+    <t>f4224801-cb79-4602-80b5-b778fd602d76</t>
+  </si>
+  <si>
+    <t>S001.M007.02.04</t>
+  </si>
+  <si>
+    <t>LG4-CW</t>
+  </si>
+  <si>
+    <t>73c353a9-3588-48da-bf3e-a1053278da1f</t>
+  </si>
+  <si>
+    <t>pick_lane_address</t>
+  </si>
+  <si>
+    <t>p_lane_name</t>
+  </si>
+  <si>
+    <t>t_lane_name</t>
+  </si>
+  <si>
+    <t>prozess</t>
+  </si>
+  <si>
+    <t>(PRODUCT DONE)</t>
+  </si>
+  <si>
+    <t>(NO TRACKING)*</t>
+  </si>
+  <si>
+    <t>* We consider that a piece is done</t>
+  </si>
+  <si>
+    <t>(NO TRACKING)</t>
+  </si>
+  <si>
+    <t>when the production of the next one starts</t>
+  </si>
+  <si>
+    <t>That's how we track timestamps</t>
+  </si>
+  <si>
+    <t>FK5-SF,FK1-SF,FK6-SF,FK2-SF,FK7-SF,FK3-SF,FK8-SF,FK4-SF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00E+00"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1018,6 +1004,12 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1059,7 +1051,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1067,129 +1059,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1248,93 +1157,401 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="K31" activeCellId="0" sqref="K31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.27"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="41.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="0" width="36.09"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="0" width="27.09"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="9" style="0" width="11.82"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="15.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="29.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="23.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="14.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.68"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="36.26953125" customWidth="1"/>
+    <col min="4" max="4" width="41.54296875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.36328125" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="36.08984375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="27.08984375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6328125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13.1796875" customWidth="1"/>
+    <col min="12" max="12" width="29.08984375" customWidth="1"/>
+    <col min="13" max="13" width="23" customWidth="1"/>
+    <col min="14" max="14" width="11.6328125" customWidth="1"/>
+    <col min="15" max="15" width="14.90625" customWidth="1"/>
+    <col min="16" max="16" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1346,7 +1563,7 @@
       <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="1">
         <v>3</v>
       </c>
       <c r="F2" s="1"/>
@@ -1374,8 +1591,8 @@
       </c>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1387,7 +1604,7 @@
       <c r="D3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="1">
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1417,8 +1634,8 @@
       </c>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:17">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1430,7 +1647,7 @@
       <c r="D4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="2">
         <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -1458,8 +1675,8 @@
       </c>
       <c r="Q4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:17">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1471,7 +1688,7 @@
       <c r="D5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="2">
         <v>5</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -1499,8 +1716,8 @@
       </c>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1512,7 +1729,7 @@
       <c r="D6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="1">
         <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1538,8 +1755,8 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1551,7 +1768,7 @@
       <c r="D7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="1">
         <v>5</v>
       </c>
       <c r="F7" s="1"/>
@@ -1571,8 +1788,8 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1584,7 +1801,7 @@
       <c r="D8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="1">
         <v>5</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -1605,7 +1822,7 @@
       <c r="M8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N8" s="1" t="n">
+      <c r="N8" s="1">
         <v>4</v>
       </c>
       <c r="O8" s="1" t="s">
@@ -1616,8 +1833,8 @@
       </c>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1629,7 +1846,7 @@
       <c r="D9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="1">
         <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -1650,7 +1867,7 @@
       <c r="M9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N9" s="1" t="n">
+      <c r="N9" s="1">
         <v>8</v>
       </c>
       <c r="O9" s="1" t="s">
@@ -1661,8 +1878,8 @@
       </c>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:17">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1674,7 +1891,7 @@
       <c r="D10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="1">
         <v>5</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -1695,7 +1912,7 @@
       <c r="M10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="1" t="n">
+      <c r="N10" s="1">
         <v>4</v>
       </c>
       <c r="O10" s="1" t="s">
@@ -1706,8 +1923,8 @@
       </c>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:17">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1719,7 +1936,7 @@
       <c r="D11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="1">
         <v>5</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -1740,7 +1957,7 @@
       <c r="M11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N11" s="1" t="n">
+      <c r="N11" s="1">
         <v>4</v>
       </c>
       <c r="O11" s="1" t="s">
@@ -1751,8 +1968,8 @@
       </c>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+    <row r="12" spans="1:17">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1764,7 +1981,7 @@
       <c r="D12" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="3">
         <v>5</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -1789,7 +2006,7 @@
       <c r="M12" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="N12" s="3" t="n">
+      <c r="N12" s="3">
         <v>4</v>
       </c>
       <c r="O12" s="3" t="s">
@@ -1800,8 +2017,8 @@
       </c>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+    <row r="13" spans="1:17">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1813,13 +2030,13 @@
       <c r="D13" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="5" t="n">
+      <c r="E13" s="21">
         <v>5</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>92</v>
       </c>
       <c r="H13" s="3" t="s">
@@ -1838,7 +2055,7 @@
       <c r="M13" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="N13" s="3" t="n">
+      <c r="N13" s="3">
         <v>8</v>
       </c>
       <c r="O13" s="3" t="s">
@@ -1849,8 +2066,8 @@
       </c>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+    <row r="14" spans="1:17">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1862,7 +2079,7 @@
       <c r="D14" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="3">
         <v>5</v>
       </c>
       <c r="F14" s="3" t="s">
@@ -1887,7 +2104,7 @@
       <c r="M14" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="N14" s="3" t="n">
+      <c r="N14" s="3">
         <v>4</v>
       </c>
       <c r="O14" s="3" t="s">
@@ -1898,8 +2115,8 @@
       </c>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+    <row r="15" spans="1:17">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1911,7 +2128,7 @@
       <c r="D15" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E15" s="3">
         <v>5</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -1936,7 +2153,7 @@
       <c r="M15" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="N15" s="3" t="n">
+      <c r="N15" s="3">
         <v>8</v>
       </c>
       <c r="O15" s="3" t="s">
@@ -1947,8 +2164,8 @@
       </c>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+    <row r="16" spans="1:17">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1960,7 +2177,7 @@
       <c r="D16" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E16" s="3">
         <v>5</v>
       </c>
       <c r="F16" s="3" t="s">
@@ -1985,7 +2202,7 @@
       <c r="M16" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="N16" s="3" t="n">
+      <c r="N16" s="3">
         <v>4</v>
       </c>
       <c r="O16" s="3" t="s">
@@ -1996,8 +2213,8 @@
       </c>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+    <row r="17" spans="1:17">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2009,7 +2226,7 @@
       <c r="D17" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E17" s="3" t="n">
+      <c r="E17" s="3">
         <v>5</v>
       </c>
       <c r="F17" s="3" t="s">
@@ -2034,7 +2251,7 @@
       <c r="M17" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="N17" s="3" t="n">
+      <c r="N17" s="3">
         <v>8</v>
       </c>
       <c r="O17" s="3" t="s">
@@ -2045,8 +2262,8 @@
       </c>
       <c r="Q17" s="3"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+    <row r="18" spans="1:17">
+      <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -2058,7 +2275,7 @@
       <c r="D18" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E18" s="3" t="n">
+      <c r="E18" s="3">
         <v>5</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -2083,7 +2300,7 @@
       <c r="M18" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="N18" s="3" t="n">
+      <c r="N18" s="3">
         <v>4</v>
       </c>
       <c r="O18" s="3" t="s">
@@ -2094,8 +2311,8 @@
       </c>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+    <row r="19" spans="1:17">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -2107,7 +2324,7 @@
       <c r="D19" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E19" s="3" t="n">
+      <c r="E19" s="3">
         <v>5</v>
       </c>
       <c r="F19" s="3" t="s">
@@ -2132,7 +2349,7 @@
       <c r="M19" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="N19" s="3" t="n">
+      <c r="N19" s="3">
         <v>8</v>
       </c>
       <c r="O19" s="3" t="s">
@@ -2143,8 +2360,8 @@
       </c>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:17">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2156,7 +2373,7 @@
       <c r="D20" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="1">
         <v>4</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -2177,7 +2394,7 @@
       <c r="M20" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="N20" s="1" t="n">
+      <c r="N20" s="1">
         <v>4</v>
       </c>
       <c r="O20" s="1" t="s">
@@ -2188,8 +2405,8 @@
       </c>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:17">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2201,7 +2418,7 @@
       <c r="D21" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="1">
         <v>4</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -2222,7 +2439,7 @@
       <c r="M21" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="N21" s="1" t="n">
+      <c r="N21" s="1">
         <v>4</v>
       </c>
       <c r="O21" s="1" t="s">
@@ -2233,8 +2450,8 @@
       </c>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:17">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2246,7 +2463,7 @@
       <c r="D22" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="E22" s="1">
         <v>4</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -2267,7 +2484,7 @@
       <c r="M22" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="N22" s="1" t="n">
+      <c r="N22" s="1">
         <v>8</v>
       </c>
       <c r="O22" s="1" t="s">
@@ -2278,8 +2495,8 @@
       </c>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:17">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2291,7 +2508,7 @@
       <c r="D23" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E23" s="1" t="n">
+      <c r="E23" s="1">
         <v>4</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -2312,7 +2529,7 @@
       <c r="M23" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="N23" s="1" t="n">
+      <c r="N23" s="1">
         <v>4</v>
       </c>
       <c r="O23" s="1" t="s">
@@ -2323,8 +2540,8 @@
       </c>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:17">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2336,7 +2553,7 @@
       <c r="D24" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="E24" s="1">
         <v>4</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -2357,7 +2574,7 @@
       <c r="M24" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="N24" s="1" t="n">
+      <c r="N24" s="1">
         <v>4</v>
       </c>
       <c r="O24" s="1" t="s">
@@ -2368,8 +2585,8 @@
       </c>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:17">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2381,7 +2598,7 @@
       <c r="D25" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E25" s="1" t="n">
+      <c r="E25" s="1">
         <v>4</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -2402,7 +2619,7 @@
       <c r="M25" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="N25" s="1" t="n">
+      <c r="N25" s="1">
         <v>4</v>
       </c>
       <c r="O25" s="1" t="s">
@@ -2413,8 +2630,8 @@
       </c>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:17">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2426,7 +2643,7 @@
       <c r="D26" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E26" s="1" t="n">
+      <c r="E26" s="1">
         <v>4</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -2447,7 +2664,7 @@
       <c r="M26" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="N26" s="1" t="n">
+      <c r="N26" s="1">
         <v>4</v>
       </c>
       <c r="O26" s="1" t="s">
@@ -2458,20 +2675,20 @@
       </c>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:17">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>208</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E27" s="1" t="n">
+      <c r="E27" s="1">
         <v>4</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -2492,7 +2709,7 @@
       <c r="M27" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N27" s="1" t="n">
+      <c r="N27" s="1">
         <v>4</v>
       </c>
       <c r="O27" s="1" t="s">
@@ -2503,8 +2720,8 @@
       </c>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:17">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2516,7 +2733,7 @@
       <c r="D28" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E28" s="1" t="n">
+      <c r="E28" s="1">
         <v>4</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -2537,7 +2754,7 @@
       <c r="M28" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="N28" s="1" t="n">
+      <c r="N28" s="1">
         <v>4</v>
       </c>
       <c r="O28" s="1" t="s">
@@ -2548,8 +2765,8 @@
       </c>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:17">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2561,7 +2778,7 @@
       <c r="D29" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E29" s="1" t="n">
+      <c r="E29" s="1">
         <v>4</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -2582,7 +2799,7 @@
       <c r="M29" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="N29" s="1" t="n">
+      <c r="N29" s="1">
         <v>4</v>
       </c>
       <c r="O29" s="1" t="s">
@@ -2593,8 +2810,8 @@
       </c>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:17">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2604,7 +2821,7 @@
         <v>228</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="1" t="n">
+      <c r="E30" s="1">
         <v>4</v>
       </c>
       <c r="F30" s="1"/>
@@ -2624,8 +2841,8 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:17">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2651,8 +2868,8 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:17">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -2678,20 +2895,20 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:17">
+      <c r="A33" s="2">
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="E33" s="2" t="n">
+      <c r="E33" s="2">
         <v>3</v>
       </c>
       <c r="F33" s="2"/>
@@ -2714,7 +2931,7 @@
       <c r="M33" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="N33" s="2" t="n">
+      <c r="N33" s="2">
         <v>4</v>
       </c>
       <c r="O33" s="2" t="s">
@@ -2725,20 +2942,20 @@
       </c>
       <c r="Q33" s="2"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:17">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="E34" s="2" t="n">
+      <c r="E34" s="2">
         <v>3</v>
       </c>
       <c r="F34" s="2"/>
@@ -2761,7 +2978,7 @@
       <c r="M34" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="N34" s="2" t="n">
+      <c r="N34" s="2">
         <v>4</v>
       </c>
       <c r="O34" s="2" t="s">
@@ -2772,20 +2989,20 @@
       </c>
       <c r="Q34" s="2"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:17">
+      <c r="A35" s="2">
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="E35" s="2" t="n">
+      <c r="E35" s="2">
         <v>3</v>
       </c>
       <c r="F35" s="2"/>
@@ -2808,7 +3025,7 @@
       <c r="M35" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="N35" s="2" t="n">
+      <c r="N35" s="2">
         <v>4</v>
       </c>
       <c r="O35" s="2" t="s">
@@ -2819,24 +3036,24 @@
       </c>
       <c r="Q35" s="2"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:17">
+      <c r="A36" s="2">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="E36" s="10" t="n">
+      <c r="E36" s="9">
         <v>3</v>
       </c>
       <c r="F36" s="2"/>
-      <c r="G36" s="11" t="s">
+      <c r="G36" s="10" t="s">
         <v>208</v>
       </c>
       <c r="H36" s="2" t="s">
@@ -2855,7 +3072,7 @@
       <c r="M36" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="N36" s="2" t="n">
+      <c r="N36" s="2">
         <v>4</v>
       </c>
       <c r="O36" s="2" t="s">
@@ -2866,20 +3083,20 @@
       </c>
       <c r="Q36" s="2"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:17">
+      <c r="A37" s="2">
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="E37" s="10" t="n">
+      <c r="E37" s="9">
         <v>3</v>
       </c>
       <c r="F37" s="2"/>
@@ -2902,7 +3119,7 @@
       <c r="M37" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="N37" s="2" t="n">
+      <c r="N37" s="2">
         <v>4</v>
       </c>
       <c r="O37" s="2" t="s">
@@ -2913,20 +3130,20 @@
       </c>
       <c r="Q37" s="2"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="n">
+    <row r="38" spans="1:17">
+      <c r="A38" s="2">
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E38" s="2" t="n">
+      <c r="E38" s="2">
         <v>3</v>
       </c>
       <c r="F38" s="2"/>
@@ -2949,7 +3166,7 @@
       <c r="M38" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="N38" s="2" t="n">
+      <c r="N38" s="2">
         <v>8</v>
       </c>
       <c r="O38" s="2" t="s">
@@ -2960,20 +3177,20 @@
       </c>
       <c r="Q38" s="2"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="n">
+    <row r="39" spans="1:17">
+      <c r="A39" s="2">
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="E39" s="2" t="n">
+      <c r="E39" s="2">
         <v>3</v>
       </c>
       <c r="F39" s="2"/>
@@ -2996,7 +3213,7 @@
       <c r="M39" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="N39" s="2" t="n">
+      <c r="N39" s="2">
         <v>8</v>
       </c>
       <c r="O39" s="2" t="s">
@@ -3007,20 +3224,20 @@
       </c>
       <c r="Q39" s="2"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="n">
+    <row r="40" spans="1:17">
+      <c r="A40" s="2">
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="E40" s="10" t="n">
+      <c r="E40" s="9">
         <v>5</v>
       </c>
       <c r="F40" s="2"/>
@@ -3043,7 +3260,7 @@
       <c r="M40" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="N40" s="2" t="n">
+      <c r="N40" s="2">
         <v>8</v>
       </c>
       <c r="O40" s="2" t="s">
@@ -3054,20 +3271,20 @@
       </c>
       <c r="Q40" s="2"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="n">
+    <row r="41" spans="1:17">
+      <c r="A41" s="2">
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="E41" s="10" t="n">
+      <c r="E41" s="9">
         <v>3</v>
       </c>
       <c r="F41" s="2"/>
@@ -3090,7 +3307,7 @@
       <c r="M41" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="N41" s="2" t="n">
+      <c r="N41" s="2">
         <v>8</v>
       </c>
       <c r="O41" s="2" t="s">
@@ -3101,20 +3318,20 @@
       </c>
       <c r="Q41" s="2"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="n">
+    <row r="42" spans="1:17">
+      <c r="A42" s="2">
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="E42" s="10" t="n">
+      <c r="E42" s="9">
         <v>7</v>
       </c>
       <c r="F42" s="2"/>
@@ -3137,7 +3354,7 @@
       <c r="M42" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="N42" s="2" t="n">
+      <c r="N42" s="2">
         <v>8</v>
       </c>
       <c r="O42" s="2" t="s">
@@ -3148,8 +3365,8 @@
       </c>
       <c r="Q42" s="2"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:17">
+      <c r="A43" s="2">
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -3183,8 +3400,8 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="n">
+    <row r="44" spans="1:17">
+      <c r="A44" s="2">
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -3218,8 +3435,8 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:17">
+      <c r="A45" s="2">
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -3251,2473 +3468,2451 @@
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="12" t="n">
+    <row r="46" spans="1:17">
+      <c r="A46" s="11">
         <v>44</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E46" s="12" t="n">
+      <c r="E46" s="11">
         <v>5</v>
       </c>
-      <c r="F46" s="12" t="s">
+      <c r="F46" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12" t="s">
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="J46" s="12" t="s">
+      <c r="J46" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12" t="s">
+      <c r="K46" s="11"/>
+      <c r="L46" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="M46" s="12" t="s">
+      <c r="M46" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="N46" s="12" t="n">
+      <c r="N46" s="11">
         <v>8</v>
       </c>
-      <c r="O46" s="12" t="s">
+      <c r="O46" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="P46" s="12" t="s">
+      <c r="P46" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="Q46" s="12"/>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="12" t="n">
+      <c r="Q46" s="11"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="11">
         <v>45</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E47" s="12" t="n">
+      <c r="E47" s="11">
         <v>5</v>
       </c>
-      <c r="F47" s="12" t="s">
+      <c r="F47" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12" t="s">
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="J47" s="12" t="s">
+      <c r="J47" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12" t="s">
+      <c r="K47" s="11"/>
+      <c r="L47" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="M47" s="12" t="s">
+      <c r="M47" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="N47" s="12" t="n">
+      <c r="N47" s="11">
         <v>8</v>
       </c>
-      <c r="O47" s="12" t="s">
+      <c r="O47" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="P47" s="12" t="s">
+      <c r="P47" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="Q47" s="12"/>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="12" t="n">
+      <c r="Q47" s="11"/>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="11">
         <v>46</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E48" s="12" t="n">
+      <c r="E48" s="11">
         <v>5</v>
       </c>
-      <c r="F48" s="12" t="s">
+      <c r="F48" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12" t="s">
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="J48" s="12" t="s">
+      <c r="J48" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12" t="s">
+      <c r="K48" s="11"/>
+      <c r="L48" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="M48" s="12" t="s">
+      <c r="M48" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="N48" s="12" t="n">
+      <c r="N48" s="11">
         <v>4</v>
       </c>
-      <c r="O48" s="12" t="s">
+      <c r="O48" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="P48" s="12" t="s">
+      <c r="P48" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="Q48" s="12"/>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="12" t="n">
+      <c r="Q48" s="11"/>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="11">
         <v>47</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E49" s="12" t="n">
+      <c r="E49" s="11">
         <v>5</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="F49" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12" t="s">
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="J49" s="12" t="s">
+      <c r="J49" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12" t="s">
+      <c r="K49" s="11"/>
+      <c r="L49" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="M49" s="12" t="s">
+      <c r="M49" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="N49" s="12" t="n">
+      <c r="N49" s="11">
         <v>4</v>
       </c>
-      <c r="O49" s="12" t="s">
+      <c r="O49" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="P49" s="12" t="s">
+      <c r="P49" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="Q49" s="12"/>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="12" t="n">
+      <c r="Q49" s="11"/>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="11">
         <v>48</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E50" s="12" t="n">
+      <c r="E50" s="11">
         <v>5</v>
       </c>
-      <c r="F50" s="12" t="s">
+      <c r="F50" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12" t="s">
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J50" s="12" t="s">
+      <c r="J50" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12" t="s">
+      <c r="K50" s="11"/>
+      <c r="L50" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="M50" s="12" t="s">
+      <c r="M50" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="N50" s="12" t="n">
+      <c r="N50" s="11">
         <v>8</v>
       </c>
-      <c r="O50" s="12" t="s">
+      <c r="O50" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="P50" s="12" t="s">
+      <c r="P50" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="Q50" s="12"/>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="12" t="n">
+      <c r="Q50" s="11"/>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="11">
         <v>49</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D51" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="E51" s="12" t="n">
+      <c r="E51" s="11">
         <v>5</v>
       </c>
-      <c r="F51" s="12" t="s">
+      <c r="F51" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12" t="s">
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="J51" s="12" t="s">
+      <c r="J51" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12" t="s">
+      <c r="K51" s="11"/>
+      <c r="L51" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="M51" s="12" t="s">
+      <c r="M51" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="N51" s="12" t="n">
+      <c r="N51" s="11">
         <v>8</v>
       </c>
-      <c r="O51" s="12" t="s">
+      <c r="O51" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="P51" s="12" t="s">
+      <c r="P51" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="Q51" s="12"/>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="12" t="n">
+      <c r="Q51" s="11"/>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="11">
         <v>50</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E52" s="12" t="n">
+      <c r="E52" s="11">
         <v>5</v>
       </c>
-      <c r="F52" s="12" t="s">
+      <c r="F52" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12" t="s">
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="J52" s="12" t="s">
+      <c r="J52" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12" t="s">
+      <c r="K52" s="11"/>
+      <c r="L52" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="M52" s="12" t="s">
+      <c r="M52" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="N52" s="12" t="n">
+      <c r="N52" s="11">
         <v>4</v>
       </c>
-      <c r="O52" s="12" t="s">
+      <c r="O52" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="P52" s="12" t="s">
+      <c r="P52" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="Q52" s="12"/>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="12" t="n">
+      <c r="Q52" s="11"/>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="11">
         <v>51</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D53" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="E53" s="12" t="n">
+      <c r="E53" s="11">
         <v>5</v>
       </c>
-      <c r="F53" s="12" t="s">
+      <c r="F53" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12" t="s">
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="J53" s="12" t="s">
+      <c r="J53" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12" t="s">
+      <c r="K53" s="11"/>
+      <c r="L53" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="M53" s="12" t="s">
+      <c r="M53" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="N53" s="12" t="n">
+      <c r="N53" s="11">
         <v>4</v>
       </c>
-      <c r="O53" s="12" t="s">
+      <c r="O53" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="P53" s="12" t="s">
+      <c r="P53" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="Q53" s="12"/>
-    </row>
-    <row r="59" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="Q53" s="11"/>
+    </row>
+    <row r="59" spans="1:17" s="12" customFormat="1"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="16.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.91"/>
+    <col min="1" max="2" width="16.54296875" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" customWidth="1"/>
+    <col min="5" max="5" width="29.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
         <v>306</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>307</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>308</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>271</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>176</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>267</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>310</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>311</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>235</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>271</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>310</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>313</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>235</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>252</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>310</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>313</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>235</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
         <v>210</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>247</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>310</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>313</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>263</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>310</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>313</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>243</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>310</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>313</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
         <v>141</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>239</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>310</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>313</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
         <v>151</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>259</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>310</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>313</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>255</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>310</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>313</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>233</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>310</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>313</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>252</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>233</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>255</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>121</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>243</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
         <v>128</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>131</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>263</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>144</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>239</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
         <v>148</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>154</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>259</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>177</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" t="s">
         <v>211</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="120" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:5" ht="120" customHeight="1">
+      <c r="A29" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
         <v>280</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>281</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" t="s">
         <v>94</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
         <v>285</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>286</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" t="s">
         <v>108</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" t="s">
         <v>114</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
         <v>288</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>289</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" t="s">
         <v>82</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E32" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
         <v>291</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>292</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" t="s">
         <v>104</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
         <v>294</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>295</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" t="s">
         <v>128</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" t="s">
         <v>134</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E34" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
         <v>297</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" t="s">
         <v>298</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" t="s">
         <v>148</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" t="s">
         <v>154</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="E35" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
         <v>300</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" t="s">
         <v>301</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" t="s">
         <v>118</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" t="s">
         <v>124</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="E36" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
         <v>303</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" t="s">
         <v>304</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" t="s">
         <v>138</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" t="s">
         <v>144</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="E37" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
         <v>158</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" t="s">
         <v>162</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" t="s">
         <v>161</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E38" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
         <v>167</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" t="s">
         <v>170</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" t="s">
         <v>161</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="E39" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" t="s">
         <v>177</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" t="s">
         <v>176</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" t="s">
         <v>267</v>
       </c>
-      <c r="E40" s="0" t="s">
+      <c r="E40" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
         <v>180</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" t="s">
         <v>183</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" t="s">
         <v>161</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="E41" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
         <v>187</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>190</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" t="s">
         <v>161</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="E42" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
         <v>194</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" t="s">
         <v>197</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" t="s">
         <v>161</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="E43" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
         <v>201</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" t="s">
         <v>204</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" t="s">
         <v>161</v>
       </c>
-      <c r="E44" s="0" t="s">
+      <c r="E44" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" t="s">
         <v>211</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" t="s">
         <v>210</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" t="s">
         <v>247</v>
       </c>
-      <c r="E45" s="0" t="s">
+      <c r="E45" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
         <v>214</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" t="s">
         <v>217</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" t="s">
         <v>161</v>
       </c>
-      <c r="E46" s="0" t="s">
+      <c r="E46" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
         <v>220</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" t="s">
         <v>223</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" t="s">
         <v>161</v>
       </c>
-      <c r="E47" s="0" t="s">
+      <c r="E47" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
         <v>227</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" t="s">
         <v>275</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="44.45"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="6" style="0" width="9.14"/>
+    <col min="2" max="2" width="16.54296875" customWidth="1"/>
+    <col min="3" max="3" width="39.54296875" customWidth="1"/>
+    <col min="4" max="4" width="44.453125" customWidth="1"/>
+    <col min="6" max="8" width="9.08984375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="n">
+    <row r="1" spans="1:10">
+      <c r="A1">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="16" t="n">
+      <c r="E1" s="15">
         <v>5</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:10">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>176</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="E2" s="16" t="n">
+      <c r="E2" s="15">
         <v>3</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" t="s">
         <v>267</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:10">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="E3" s="16" t="n">
+      <c r="E3" s="15">
         <v>3</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" t="s">
         <v>94</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:10">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="E4" s="16" t="n">
+      <c r="E4" s="15">
         <v>3</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" t="s">
         <v>252</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:10">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>210</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="E5" s="16" t="n">
+      <c r="E5" s="15">
         <v>3</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" t="s">
         <v>247</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:10">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="E6" s="16" t="n">
+      <c r="E6" s="15">
         <v>3</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" t="s">
         <v>263</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:10">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>3</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" t="s">
         <v>243</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="J7" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:10">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" t="s">
         <v>239</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="J8" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:10">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>3</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" t="s">
         <v>259</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="J9" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:10">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10">
         <v>3</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" t="s">
         <v>255</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="J10" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:10">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11">
         <v>3</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="I11" t="s">
         <v>233</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="J11" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:10">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12">
         <v>5</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="I12" t="s">
         <v>82</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="J12" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:10">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13">
         <v>5</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="I13" t="s">
         <v>104</v>
       </c>
-      <c r="J13" s="0" t="s">
+      <c r="J13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:10">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14">
         <v>5</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="I14" s="0" t="s">
+      <c r="I14" t="s">
         <v>114</v>
       </c>
-      <c r="J14" s="0" t="s">
+      <c r="J14" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:10">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15">
         <v>5</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="I15" s="0" t="s">
+      <c r="I15" t="s">
         <v>124</v>
       </c>
-      <c r="J15" s="0" t="s">
+      <c r="J15" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:10">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>128</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16">
         <v>5</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="I16" s="0" t="s">
+      <c r="I16" t="s">
         <v>134</v>
       </c>
-      <c r="J16" s="0" t="s">
+      <c r="J16" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:10">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>138</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17">
         <v>5</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="I17" s="0" t="s">
+      <c r="I17" t="s">
         <v>144</v>
       </c>
-      <c r="J17" s="0" t="s">
+      <c r="J17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:10">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>148</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>150</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="I18" s="0" t="s">
+      <c r="I18" t="s">
         <v>154</v>
       </c>
-      <c r="J18" s="0" t="s">
+      <c r="J18" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
+    <row r="19" spans="1:10">
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="B20" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20">
         <v>3</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="0" t="s">
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="0" t="s">
+      <c r="J20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
+    <row r="21" spans="1:10">
+      <c r="B21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21">
         <v>3</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="0" t="s">
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="0" t="s">
+      <c r="J21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
+    <row r="22" spans="1:10">
+      <c r="B22" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22">
         <v>5</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="0" t="s">
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" t="s">
         <v>35</v>
       </c>
-      <c r="J22" s="0" t="s">
+      <c r="J22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
+    <row r="23" spans="1:10">
+      <c r="B23" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23">
         <v>5</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="0" t="s">
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" t="s">
         <v>35</v>
       </c>
-      <c r="J23" s="0" t="s">
+      <c r="J23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
+    <row r="24" spans="1:10">
+      <c r="B24" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24">
         <v>5</v>
       </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="0" t="s">
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" t="s">
         <v>35</v>
       </c>
-      <c r="J24" s="0" t="s">
+      <c r="J24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
+    <row r="25" spans="1:10">
+      <c r="B25" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25">
         <v>5</v>
       </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="0" t="s">
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" t="s">
         <v>35</v>
       </c>
-      <c r="J25" s="0" t="s">
+      <c r="J25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
+    <row r="26" spans="1:10">
+      <c r="B26" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26">
         <v>5</v>
       </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="0" t="s">
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" t="s">
         <v>60</v>
       </c>
-      <c r="J26" s="0" t="s">
+      <c r="J26" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
+    <row r="27" spans="1:10">
+      <c r="B27" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27">
         <v>5</v>
       </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="0" t="s">
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" t="s">
         <v>67</v>
       </c>
-      <c r="J27" s="0" t="s">
+      <c r="J27" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
+    <row r="28" spans="1:10">
+      <c r="B28" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28">
         <v>5</v>
       </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="0" t="s">
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" t="s">
         <v>74</v>
       </c>
-      <c r="J28" s="0" t="s">
+      <c r="J28" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-    </row>
-    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
+    <row r="29" spans="1:10">
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="B30" t="s">
         <v>280</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" t="s">
         <v>93</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30">
         <v>5</v>
       </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="0" t="s">
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" t="s">
         <v>281</v>
       </c>
-      <c r="J30" s="0" t="s">
+      <c r="J30" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
+    <row r="31" spans="1:10">
+      <c r="B31" t="s">
         <v>285</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" t="s">
         <v>112</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" t="s">
         <v>113</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31">
         <v>5</v>
       </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="0" t="s">
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" t="s">
         <v>286</v>
       </c>
-      <c r="J31" s="0" t="s">
+      <c r="J31" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
+    <row r="32" spans="1:10">
+      <c r="B32" t="s">
         <v>288</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" t="s">
         <v>81</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32">
         <v>5</v>
       </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="0" t="s">
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" t="s">
         <v>289</v>
       </c>
-      <c r="J32" s="0" t="s">
+      <c r="J32" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
+    <row r="33" spans="2:10">
+      <c r="B33" t="s">
         <v>291</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" t="s">
         <v>103</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33">
         <v>5</v>
       </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="0" t="s">
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" t="s">
         <v>292</v>
       </c>
-      <c r="J33" s="0" t="s">
+      <c r="J33" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="s">
+    <row r="34" spans="2:10">
+      <c r="B34" t="s">
         <v>294</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" t="s">
         <v>132</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" t="s">
         <v>133</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34">
         <v>5</v>
       </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="0" t="s">
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" t="s">
         <v>295</v>
       </c>
-      <c r="J34" s="0" t="s">
+      <c r="J34" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
+    <row r="35" spans="2:10">
+      <c r="B35" t="s">
         <v>297</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" t="s">
         <v>152</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" t="s">
         <v>153</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35">
         <v>5</v>
       </c>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="0" t="s">
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" t="s">
         <v>298</v>
       </c>
-      <c r="J35" s="0" t="s">
+      <c r="J35" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="s">
+    <row r="36" spans="2:10">
+      <c r="B36" t="s">
         <v>300</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" t="s">
         <v>122</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" t="s">
         <v>123</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36">
         <v>5</v>
       </c>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="0" t="s">
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" t="s">
         <v>301</v>
       </c>
-      <c r="J36" s="0" t="s">
+      <c r="J36" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="s">
+    <row r="37" spans="2:10">
+      <c r="B37" t="s">
         <v>303</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" t="s">
         <v>142</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" t="s">
         <v>143</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37">
         <v>5</v>
       </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="0" t="s">
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" t="s">
         <v>304</v>
       </c>
-      <c r="J37" s="0" t="s">
+      <c r="J37" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-    </row>
-    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
+    <row r="38" spans="2:10">
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" t="s">
         <v>158</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" t="s">
         <v>159</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" t="s">
         <v>160</v>
       </c>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="0" t="s">
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" t="s">
         <v>162</v>
       </c>
-      <c r="J39" s="0" t="s">
+      <c r="J39" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
+    <row r="40" spans="2:10">
+      <c r="B40" t="s">
         <v>167</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" t="s">
         <v>168</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" t="s">
         <v>169</v>
       </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="0" t="s">
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" t="s">
         <v>170</v>
       </c>
-      <c r="J40" s="0" t="s">
+      <c r="J40" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="s">
+    <row r="41" spans="2:10">
+      <c r="B41" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" t="s">
         <v>174</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" t="s">
         <v>175</v>
       </c>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="0" t="s">
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" t="s">
         <v>177</v>
       </c>
-      <c r="J41" s="0" t="s">
+      <c r="J41" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0" t="s">
+    <row r="42" spans="2:10">
+      <c r="B42" t="s">
         <v>180</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" t="s">
         <v>181</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" t="s">
         <v>182</v>
       </c>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="0" t="s">
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" t="s">
         <v>183</v>
       </c>
-      <c r="J42" s="0" t="s">
+      <c r="J42" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
+    <row r="43" spans="2:10">
+      <c r="B43" t="s">
         <v>187</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" t="s">
         <v>188</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" t="s">
         <v>189</v>
       </c>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="0" t="s">
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" t="s">
         <v>190</v>
       </c>
-      <c r="J43" s="0" t="s">
+      <c r="J43" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
+    <row r="44" spans="2:10">
+      <c r="B44" t="s">
         <v>194</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" t="s">
         <v>195</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" t="s">
         <v>196</v>
       </c>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="0" t="s">
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" t="s">
         <v>197</v>
       </c>
-      <c r="J44" s="0" t="s">
+      <c r="J44" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
+    <row r="45" spans="2:10">
+      <c r="B45" t="s">
         <v>201</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" t="s">
         <v>202</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" t="s">
         <v>203</v>
       </c>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="0" t="s">
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" t="s">
         <v>204</v>
       </c>
-      <c r="J45" s="0" t="s">
+      <c r="J45" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
+    <row r="46" spans="2:10">
+      <c r="B46" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" t="s">
         <v>209</v>
       </c>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="0" t="s">
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" t="s">
         <v>211</v>
       </c>
-      <c r="J46" s="0" t="s">
+      <c r="J46" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
+    <row r="47" spans="2:10">
+      <c r="B47" t="s">
         <v>214</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" t="s">
         <v>215</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" t="s">
         <v>216</v>
       </c>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="0" t="s">
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" t="s">
         <v>217</v>
       </c>
-      <c r="J47" s="0" t="s">
+      <c r="J47" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="0" t="s">
+    <row r="48" spans="2:10">
+      <c r="B48" t="s">
         <v>220</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" t="s">
         <v>221</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" t="s">
         <v>222</v>
       </c>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="0" t="s">
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" t="s">
         <v>223</v>
       </c>
-      <c r="J48" s="0" t="s">
+      <c r="J48" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="0" t="s">
+    <row r="49" spans="2:10">
+      <c r="B49" t="s">
         <v>227</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" t="s">
         <v>228</v>
       </c>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-    </row>
-    <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="0" t="s">
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" t="s">
         <v>229</v>
       </c>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-    </row>
-    <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="0" t="s">
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" t="s">
         <v>230</v>
       </c>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-    </row>
-    <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="0" t="s">
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" t="s">
         <v>273</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" t="s">
         <v>274</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" t="s">
         <v>275</v>
       </c>
-      <c r="E52" s="0" t="s">
+      <c r="E52" t="s">
         <v>35</v>
       </c>
-      <c r="I52" s="0" t="s">
+      <c r="I52" t="s">
         <v>35</v>
       </c>
-      <c r="J52" s="0" t="s">
+      <c r="J52" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="0" t="s">
+    <row r="53" spans="2:10">
+      <c r="B53" t="s">
         <v>276</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" t="s">
         <v>277</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" t="s">
         <v>275</v>
       </c>
-      <c r="E53" s="0" t="s">
+      <c r="E53" t="s">
         <v>35</v>
       </c>
-      <c r="I53" s="0" t="s">
+      <c r="I53" t="s">
         <v>35</v>
       </c>
-      <c r="J53" s="0" t="s">
+      <c r="J53" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="0" t="s">
+    <row r="54" spans="2:10">
+      <c r="B54" t="s">
         <v>278</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" t="s">
         <v>279</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" t="s">
         <v>275</v>
       </c>
-      <c r="E54" s="0" t="s">
+      <c r="E54" t="s">
         <v>35</v>
       </c>
-      <c r="I54" s="0" t="s">
+      <c r="I54" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/datenverarbeitung/FabrikVerbindung.xlsx
+++ b/datenverarbeitung/FabrikVerbindung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Otavio\Desktop\TUDa\Freedom Plan\ADP Digitaler Schatten\Code\datenverarbeitung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD90D16-0D69-4B5B-9890-C00E3CF7A8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED843169-EDB4-46E9-A06F-A86DEE8E392A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1414,8 +1414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="L54" sqref="L54"/>
     </sheetView>
@@ -1434,7 +1434,7 @@
     <col min="10" max="10" width="15.6328125" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="13.1796875" customWidth="1"/>
     <col min="12" max="12" width="29.08984375" customWidth="1"/>
-    <col min="13" max="13" width="23" customWidth="1"/>
+    <col min="13" max="13" width="25.90625" customWidth="1"/>
     <col min="14" max="14" width="11.6328125" customWidth="1"/>
     <col min="15" max="15" width="14.90625" customWidth="1"/>
     <col min="16" max="16" width="11.6328125" customWidth="1"/>

--- a/datenverarbeitung/FabrikVerbindung.xlsx
+++ b/datenverarbeitung/FabrikVerbindung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Otavio\Desktop\TUDa\Freedom Plan\ADP Digitaler Schatten\Code\datenverarbeitung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED843169-EDB4-46E9-A06F-A86DEE8E392A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594BD7C3-BA32-4BCA-A4FE-A3761A6DA502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="308">
   <si>
     <t>id</t>
   </si>
@@ -87,9 +87,6 @@
     <t>aff183a4-42d8-4d8c-b21f-da6a796c6fda</t>
   </si>
   <si>
-    <t>(Fräsen or Sägen) then Waschen</t>
-  </si>
-  <si>
     <t>D40</t>
   </si>
   <si>
@@ -943,6 +940,15 @@
   </si>
   <si>
     <t>TransportLieferung</t>
+  </si>
+  <si>
+    <t>S001.M003.02.01, S001.M003.02.02, S001.M003.02.03</t>
+  </si>
+  <si>
+    <t>InitiallyUndefined</t>
+  </si>
+  <si>
+    <t>NOT_IMPORTANT</t>
   </si>
 </sst>
 </file>
@@ -1414,10 +1420,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L54" sqref="L54"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5"/>
@@ -1427,11 +1433,11 @@
     <col min="3" max="3" width="36.26953125" customWidth="1"/>
     <col min="4" max="4" width="41.54296875" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="9.36328125" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="6" max="6" width="46.08984375" customWidth="1"/>
     <col min="7" max="7" width="36.08984375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="27.08984375" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6328125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="41.54296875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.90625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="6.54296875" customWidth="1"/>
     <col min="11" max="11" width="13.1796875" customWidth="1"/>
     <col min="12" max="12" width="29.08984375" customWidth="1"/>
     <col min="13" max="13" width="25.90625" customWidth="1"/>
@@ -1514,17 +1520,17 @@
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="Q2" s="1"/>
     </row>
@@ -1533,41 +1539,41 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E3" s="1">
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>20</v>
+        <v>307</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="1"/>
     </row>
@@ -1576,39 +1582,41 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="E4" s="2">
         <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>305</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>306</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="Q4" s="2"/>
     </row>
@@ -1617,39 +1625,41 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="E5" s="2">
         <v>5</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>305</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>306</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q5" s="2"/>
     </row>
@@ -1658,36 +1668,36 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -1697,30 +1707,36 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E7" s="1">
         <v>5</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1730,43 +1746,43 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="E8" s="1">
         <v>5</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N8" s="1">
         <v>4</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q8" s="1"/>
     </row>
@@ -1775,43 +1791,43 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="E9" s="1">
         <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N9" s="1">
         <v>8</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="1"/>
     </row>
@@ -1820,43 +1836,43 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="E10" s="1">
         <v>5</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N10" s="1">
         <v>4</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="1"/>
     </row>
@@ -1865,43 +1881,43 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="E11" s="1">
         <v>5</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>53</v>
+        <v>306</v>
       </c>
       <c r="N11" s="1">
         <v>4</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q11" s="1"/>
     </row>
@@ -1910,47 +1926,47 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="E12" s="3">
         <v>5</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N12" s="3">
         <v>4</v>
       </c>
       <c r="O12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="Q12" s="3"/>
     </row>
@@ -1959,47 +1975,47 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="E13" s="4">
         <v>5</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="H13" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N13" s="3">
         <v>8</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q13" s="3"/>
     </row>
@@ -2008,47 +2024,47 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="E14" s="3">
         <v>5</v>
       </c>
       <c r="F14" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N14" s="3">
         <v>4</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="3"/>
     </row>
@@ -2057,47 +2073,47 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="E15" s="3">
         <v>5</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N15" s="3">
         <v>8</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q15" s="3"/>
     </row>
@@ -2106,47 +2122,47 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="E16" s="3">
         <v>5</v>
       </c>
       <c r="F16" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N16" s="3">
         <v>4</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q16" s="3"/>
     </row>
@@ -2155,47 +2171,47 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="E17" s="3">
         <v>5</v>
       </c>
       <c r="F17" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N17" s="3">
         <v>8</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q17" s="3"/>
     </row>
@@ -2204,47 +2220,47 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="E18" s="3">
         <v>5</v>
       </c>
       <c r="F18" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N18" s="3">
         <v>4</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q18" s="3"/>
     </row>
@@ -2253,47 +2269,47 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="E19" s="3">
         <v>5</v>
       </c>
       <c r="F19" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N19" s="3">
         <v>8</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q19" s="3"/>
     </row>
@@ -2302,43 +2318,43 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="E20" s="1">
         <v>4</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N20" s="1">
         <v>4</v>
       </c>
       <c r="O20" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="P20" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="Q20" s="1"/>
     </row>
@@ -2347,43 +2363,43 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="E21" s="1">
         <v>4</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N21" s="1">
         <v>4</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q21" s="1"/>
     </row>
@@ -2392,43 +2408,43 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="E22" s="1">
         <v>4</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N22" s="1">
         <v>8</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q22" s="1"/>
     </row>
@@ -2437,43 +2453,43 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="E23" s="1">
         <v>4</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N23" s="1">
         <v>4</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q23" s="1"/>
     </row>
@@ -2482,43 +2498,43 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="E24" s="1">
         <v>4</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N24" s="1">
         <v>4</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q24" s="1"/>
     </row>
@@ -2527,43 +2543,43 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="E25" s="1">
         <v>4</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N25" s="1">
         <v>4</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q25" s="1"/>
     </row>
@@ -2572,43 +2588,43 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="E26" s="1">
         <v>4</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N26" s="1">
         <v>4</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q26" s="1"/>
     </row>
@@ -2617,43 +2633,43 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C27" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="E27" s="1">
         <v>4</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N27" s="1">
         <v>4</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q27" s="1"/>
     </row>
@@ -2662,43 +2678,43 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="E28" s="1">
         <v>4</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N28" s="1">
         <v>4</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q28" s="1"/>
     </row>
@@ -2707,43 +2723,43 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="E29" s="1">
         <v>4</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N29" s="1">
         <v>4</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q29" s="1"/>
     </row>
@@ -2752,10 +2768,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1">
@@ -2768,12 +2784,12 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -2783,7 +2799,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -2795,12 +2811,12 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -2810,7 +2826,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2822,12 +2838,12 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -2837,45 +2853,45 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="E33" s="2">
         <v>3</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="I33" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N33" s="2">
         <v>4</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q33" s="2"/>
     </row>
@@ -2884,45 +2900,45 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C34" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="E34" s="2">
         <v>3</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="I34" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="J34" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N34" s="2">
         <v>4</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q34" s="2"/>
     </row>
@@ -2931,45 +2947,45 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C35" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="E35" s="2">
         <v>3</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="I35" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="J35" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N35" s="2">
         <v>4</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q35" s="2"/>
     </row>
@@ -2978,45 +2994,45 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C36" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="E36" s="9">
         <v>3</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="I36" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="J36" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N36" s="2">
         <v>4</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q36" s="2"/>
     </row>
@@ -3025,45 +3041,45 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C37" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="E37" s="9">
         <v>3</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="I37" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="J37" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N37" s="2">
         <v>4</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q37" s="2"/>
     </row>
@@ -3072,45 +3088,45 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E38" s="2">
         <v>3</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="I38" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="J38" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N38" s="2">
         <v>8</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q38" s="2"/>
     </row>
@@ -3119,45 +3135,45 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C39" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="E39" s="2">
         <v>3</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H39" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H39" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="I39" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="J39" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N39" s="2">
         <v>8</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q39" s="2"/>
     </row>
@@ -3166,45 +3182,45 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C40" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="E40" s="9">
         <v>5</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H40" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="I40" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="J40" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>262</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N40" s="2">
         <v>8</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q40" s="2"/>
     </row>
@@ -3213,45 +3229,45 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C41" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="E41" s="9">
         <v>3</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="H41" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="I41" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="J41" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N41" s="2">
         <v>8</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q41" s="2"/>
     </row>
@@ -3260,45 +3276,45 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C42" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="E42" s="9">
         <v>7</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H42" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="I42" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J42" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N42" s="2">
         <v>8</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q42" s="2"/>
     </row>
@@ -3307,32 +3323,32 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
@@ -3342,32 +3358,32 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>275</v>
-      </c>
       <c r="D44" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
@@ -3377,30 +3393,30 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>277</v>
-      </c>
       <c r="D45" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
@@ -3410,43 +3426,43 @@
         <v>44</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C46" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" s="11" t="s">
         <v>90</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>91</v>
       </c>
       <c r="E46" s="11">
         <v>5</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
       <c r="I46" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="J46" s="11" t="s">
         <v>279</v>
-      </c>
-      <c r="J46" s="11" t="s">
-        <v>280</v>
       </c>
       <c r="K46" s="11"/>
       <c r="L46" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N46" s="11">
         <v>8</v>
       </c>
       <c r="O46" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P46" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q46" s="11"/>
     </row>
@@ -3455,43 +3471,43 @@
         <v>45</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C47" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47" s="11" t="s">
         <v>110</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>111</v>
       </c>
       <c r="E47" s="11">
         <v>5</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
       <c r="I47" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="J47" s="11" t="s">
         <v>283</v>
-      </c>
-      <c r="J47" s="11" t="s">
-        <v>284</v>
       </c>
       <c r="K47" s="11"/>
       <c r="L47" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N47" s="11">
         <v>8</v>
       </c>
       <c r="O47" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P47" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q47" s="11"/>
     </row>
@@ -3500,43 +3516,43 @@
         <v>46</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C48" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D48" s="11" t="s">
         <v>79</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>80</v>
       </c>
       <c r="E48" s="11">
         <v>5</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
       <c r="I48" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="J48" s="11" t="s">
         <v>286</v>
-      </c>
-      <c r="J48" s="11" t="s">
-        <v>287</v>
       </c>
       <c r="K48" s="11"/>
       <c r="L48" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M48" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N48" s="11">
         <v>4</v>
       </c>
       <c r="O48" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P48" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q48" s="11"/>
     </row>
@@ -3545,43 +3561,43 @@
         <v>47</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C49" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" s="11" t="s">
         <v>100</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>101</v>
       </c>
       <c r="E49" s="11">
         <v>5</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
       <c r="I49" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="J49" s="11" t="s">
         <v>289</v>
-      </c>
-      <c r="J49" s="11" t="s">
-        <v>290</v>
       </c>
       <c r="K49" s="11"/>
       <c r="L49" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M49" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N49" s="11">
         <v>4</v>
       </c>
       <c r="O49" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P49" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q49" s="11"/>
     </row>
@@ -3590,43 +3606,43 @@
         <v>48</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C50" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50" s="11" t="s">
         <v>130</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>131</v>
       </c>
       <c r="E50" s="11">
         <v>5</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
       <c r="I50" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="J50" s="11" t="s">
         <v>292</v>
-      </c>
-      <c r="J50" s="11" t="s">
-        <v>293</v>
       </c>
       <c r="K50" s="11"/>
       <c r="L50" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M50" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N50" s="11">
         <v>8</v>
       </c>
       <c r="O50" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P50" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q50" s="11"/>
     </row>
@@ -3635,43 +3651,43 @@
         <v>49</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C51" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="11" t="s">
         <v>150</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>151</v>
       </c>
       <c r="E51" s="11">
         <v>5</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
       <c r="I51" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="J51" s="11" t="s">
         <v>295</v>
-      </c>
-      <c r="J51" s="11" t="s">
-        <v>296</v>
       </c>
       <c r="K51" s="11"/>
       <c r="L51" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M51" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N51" s="11">
         <v>8</v>
       </c>
       <c r="O51" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P51" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q51" s="11"/>
     </row>
@@ -3680,43 +3696,43 @@
         <v>50</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C52" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D52" s="11" t="s">
         <v>120</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>121</v>
       </c>
       <c r="E52" s="11">
         <v>5</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
       <c r="I52" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="J52" s="11" t="s">
         <v>298</v>
-      </c>
-      <c r="J52" s="11" t="s">
-        <v>299</v>
       </c>
       <c r="K52" s="11"/>
       <c r="L52" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M52" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N52" s="11">
         <v>4</v>
       </c>
       <c r="O52" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P52" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q52" s="11"/>
     </row>
@@ -3725,43 +3741,43 @@
         <v>51</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C53" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D53" s="11" t="s">
         <v>140</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>141</v>
       </c>
       <c r="E53" s="11">
         <v>5</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G53" s="11"/>
       <c r="H53" s="11"/>
       <c r="I53" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="J53" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="J53" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="K53" s="11"/>
       <c r="L53" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M53" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N53" s="11">
         <v>4</v>
       </c>
       <c r="O53" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P53" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q53" s="11"/>
     </row>

--- a/datenverarbeitung/FabrikVerbindung.xlsx
+++ b/datenverarbeitung/FabrikVerbindung.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Otavio\Desktop\TUDa\Freedom Plan\ADP Digitaler Schatten\Code\datenverarbeitung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594BD7C3-BA32-4BCA-A4FE-A3761A6DA502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C3C7FB-8AC7-421D-8217-721B8060ECAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="309">
   <si>
     <t>id</t>
   </si>
@@ -942,13 +942,16 @@
     <t>TransportLieferung</t>
   </si>
   <si>
-    <t>S001.M003.02.01, S001.M003.02.02, S001.M003.02.03</t>
-  </si>
-  <si>
     <t>InitiallyUndefined</t>
   </si>
   <si>
     <t>NOT_IMPORTANT</t>
+  </si>
+  <si>
+    <t>(MontageButton)</t>
+  </si>
+  <si>
+    <t>S001.M003.02.01,S001.M003.02.02,S001.M003.02.03</t>
   </si>
 </sst>
 </file>
@@ -1420,10 +1423,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5"/>
@@ -1520,7 +1523,7 @@
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>20</v>
@@ -1563,7 +1566,7 @@
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>29</v>
@@ -1594,7 +1597,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -1609,7 +1612,7 @@
         <v>35</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2" t="s">
@@ -1637,7 +1640,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -1652,7 +1655,7 @@
         <v>35</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2" t="s">
@@ -1908,7 +1911,7 @@
         <v>302</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N11" s="1">
         <v>4</v>
@@ -2864,7 +2867,9 @@
       <c r="E33" s="2">
         <v>3</v>
       </c>
-      <c r="F33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>307</v>
+      </c>
       <c r="G33" s="2" t="s">
         <v>96</v>
       </c>
@@ -2911,7 +2916,9 @@
       <c r="E34" s="2">
         <v>3</v>
       </c>
-      <c r="F34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>307</v>
+      </c>
       <c r="G34" s="2" t="s">
         <v>136</v>
       </c>
@@ -2958,7 +2965,9 @@
       <c r="E35" s="2">
         <v>3</v>
       </c>
-      <c r="F35" s="2"/>
+      <c r="F35" s="2" t="s">
+        <v>307</v>
+      </c>
       <c r="G35" s="2" t="s">
         <v>116</v>
       </c>
@@ -3005,7 +3014,9 @@
       <c r="E36" s="9">
         <v>3</v>
       </c>
-      <c r="F36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>307</v>
+      </c>
       <c r="G36" s="10" t="s">
         <v>205</v>
       </c>
@@ -3052,7 +3063,9 @@
       <c r="E37" s="9">
         <v>3</v>
       </c>
-      <c r="F37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>307</v>
+      </c>
       <c r="G37" s="2" t="s">
         <v>75</v>
       </c>
@@ -3099,7 +3112,9 @@
       <c r="E38" s="2">
         <v>3</v>
       </c>
-      <c r="F38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>307</v>
+      </c>
       <c r="G38" s="2" t="s">
         <v>106</v>
       </c>
@@ -3146,7 +3161,9 @@
       <c r="E39" s="2">
         <v>3</v>
       </c>
-      <c r="F39" s="2"/>
+      <c r="F39" s="2" t="s">
+        <v>307</v>
+      </c>
       <c r="G39" s="2" t="s">
         <v>146</v>
       </c>
@@ -3193,7 +3210,9 @@
       <c r="E40" s="9">
         <v>5</v>
       </c>
-      <c r="F40" s="2"/>
+      <c r="F40" s="2" t="s">
+        <v>307</v>
+      </c>
       <c r="G40" s="2" t="s">
         <v>126</v>
       </c>
@@ -3240,7 +3259,9 @@
       <c r="E41" s="9">
         <v>3</v>
       </c>
-      <c r="F41" s="2"/>
+      <c r="F41" s="2" t="s">
+        <v>307</v>
+      </c>
       <c r="G41" s="2" t="s">
         <v>171</v>
       </c>
@@ -3287,7 +3308,9 @@
       <c r="E42" s="9">
         <v>7</v>
       </c>
-      <c r="F42" s="2"/>
+      <c r="F42" s="2" t="s">
+        <v>307</v>
+      </c>
       <c r="G42" s="2" t="s">
         <v>86</v>
       </c>

--- a/datenverarbeitung/FabrikVerbindung.xlsx
+++ b/datenverarbeitung/FabrikVerbindung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Otavio\Desktop\TUDa\Freedom Plan\ADP Digitaler Schatten\Code\datenverarbeitung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C3C7FB-8AC7-421D-8217-721B8060ECAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DE1514-4A03-4EF4-8E94-BFC7D5A78A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1423,10 +1423,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5"/>

--- a/datenverarbeitung/FabrikVerbindung.xlsx
+++ b/datenverarbeitung/FabrikVerbindung.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Otavio\Desktop\TUDa\Freedom Plan\ADP Digitaler Schatten\Code\datenverarbeitung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DE1514-4A03-4EF4-8E94-BFC7D5A78A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699CB7B9-66CE-459A-B474-45E5685C44EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1421,12 +1421,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5"/>
@@ -1938,7 +1939,7 @@
         <v>76</v>
       </c>
       <c r="E12" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>77</v>
@@ -1987,7 +1988,7 @@
         <v>87</v>
       </c>
       <c r="E13" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>88</v>
@@ -2036,7 +2037,7 @@
         <v>97</v>
       </c>
       <c r="E14" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>98</v>
@@ -2085,7 +2086,7 @@
         <v>107</v>
       </c>
       <c r="E15" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>108</v>
@@ -2134,7 +2135,7 @@
         <v>117</v>
       </c>
       <c r="E16" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>118</v>
@@ -2183,7 +2184,7 @@
         <v>127</v>
       </c>
       <c r="E17" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>128</v>
@@ -2232,7 +2233,7 @@
         <v>137</v>
       </c>
       <c r="E18" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>138</v>
@@ -2281,7 +2282,7 @@
         <v>147</v>
       </c>
       <c r="E19" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>148</v>
@@ -3208,7 +3209,7 @@
         <v>259</v>
       </c>
       <c r="E40" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>307</v>
@@ -3306,7 +3307,7 @@
         <v>267</v>
       </c>
       <c r="E42" s="9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>307</v>
